--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2347779.853694506</v>
+        <v>-2349639.86162271</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5362323.598410262</v>
+        <v>5362323.598410263</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.73139729857897</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>287.8493297879132</v>
       </c>
       <c r="D11" t="n">
-        <v>277.2594796375887</v>
+        <v>277.2594796375886</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5068080891675</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>329.4524837586172</v>
+        <v>329.4524837586171</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>233.844191526861</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>133.6155215347106</v>
+        <v>133.6155215347105</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>250.3286964870406</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>227.8796940468035</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>308.8143766729593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>89.10962166677301</v>
       </c>
       <c r="C12" t="n">
-        <v>95.28493700522145</v>
+        <v>95.28493700522141</v>
       </c>
       <c r="D12" t="n">
-        <v>70.02150358154447</v>
+        <v>70.02150358154442</v>
       </c>
       <c r="E12" t="n">
-        <v>80.22151847230666</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>58.44629703045005</v>
+        <v>135.8698590135443</v>
       </c>
       <c r="H12" t="n">
-        <v>98.00300894892986</v>
+        <v>42.77764224892181</v>
       </c>
       <c r="I12" t="n">
-        <v>22.19819528308595</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>8.661760614590065</v>
       </c>
       <c r="S12" t="n">
-        <v>144.3106173150801</v>
+        <v>66.88705533198578</v>
       </c>
       <c r="T12" t="n">
         <v>116.8012902225022</v>
       </c>
       <c r="U12" t="n">
-        <v>148.4208689038235</v>
+        <v>225.8444308869178</v>
       </c>
       <c r="V12" t="n">
         <v>155.377025166331</v>
@@ -1512,10 +1512,10 @@
         <v>174.2714211778253</v>
       </c>
       <c r="X12" t="n">
-        <v>128.3494232203832</v>
+        <v>128.3494232203831</v>
       </c>
       <c r="Y12" t="n">
-        <v>128.2591337942101</v>
+        <v>128.25913379421</v>
       </c>
     </row>
     <row r="13">
@@ -1528,25 +1528,25 @@
         <v>102.408418198843</v>
       </c>
       <c r="C13" t="n">
-        <v>89.82325911553355</v>
+        <v>89.8232591155335</v>
       </c>
       <c r="D13" t="n">
-        <v>71.19191103511807</v>
+        <v>10.25253388110007</v>
       </c>
       <c r="E13" t="n">
-        <v>69.01040066347488</v>
+        <v>69.01040066347484</v>
       </c>
       <c r="F13" t="n">
-        <v>67.99748603983696</v>
+        <v>67.99748603983691</v>
       </c>
       <c r="G13" t="n">
-        <v>89.3319518860699</v>
+        <v>89.33195188606986</v>
       </c>
       <c r="H13" t="n">
-        <v>73.81919917407166</v>
+        <v>73.81919917407161</v>
       </c>
       <c r="I13" t="n">
-        <v>40.87309622974155</v>
+        <v>40.87309622974151</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.31880839361166</v>
+        <v>44.31880839361162</v>
       </c>
       <c r="S13" t="n">
         <v>125.0622420268079</v>
@@ -1585,13 +1585,13 @@
         <v>208.8280783467078</v>
       </c>
       <c r="V13" t="n">
-        <v>113.7747041867123</v>
+        <v>174.7140813407337</v>
       </c>
       <c r="W13" t="n">
         <v>209.0994363534967</v>
       </c>
       <c r="X13" t="n">
-        <v>148.2860934059429</v>
+        <v>148.2860934059428</v>
       </c>
       <c r="Y13" t="n">
         <v>141.1610913690005</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>305.3102796803862</v>
+        <v>305.3102796803863</v>
       </c>
       <c r="C14" t="n">
-        <v>287.8493297879131</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>277.2594796375886</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5068080891675</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>335.1249171548102</v>
       </c>
       <c r="H14" t="n">
-        <v>233.844191526861</v>
+        <v>123.0875129165799</v>
       </c>
       <c r="I14" t="n">
-        <v>26.86878149913291</v>
+        <v>26.86878149913298</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.83384483201107</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>133.6155215347105</v>
       </c>
       <c r="U14" t="n">
-        <v>173.7017502545636</v>
+        <v>173.7017502545637</v>
       </c>
       <c r="V14" t="n">
-        <v>250.3286964870405</v>
+        <v>250.3286964870406</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>129.3744935543364</v>
+        <v>292.3075386953747</v>
       </c>
       <c r="Y14" t="n">
-        <v>308.8143766729592</v>
+        <v>308.8143766729593</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>135.8698590135443</v>
       </c>
       <c r="H15" t="n">
-        <v>98.00300894892986</v>
+        <v>98.00300894893083</v>
       </c>
       <c r="I15" t="n">
         <v>38.65884129492198</v>
@@ -1752,7 +1752,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773036</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.4084181988429</v>
+        <v>102.408418198843</v>
       </c>
       <c r="C16" t="n">
-        <v>28.88388196151453</v>
+        <v>89.8232591155335</v>
       </c>
       <c r="D16" t="n">
-        <v>71.19191103511795</v>
+        <v>71.19191103511803</v>
       </c>
       <c r="E16" t="n">
-        <v>69.01040066347477</v>
+        <v>69.01040066347484</v>
       </c>
       <c r="F16" t="n">
-        <v>67.99748603983684</v>
+        <v>67.99748603983691</v>
       </c>
       <c r="G16" t="n">
-        <v>89.33195188606977</v>
+        <v>89.33195188606986</v>
       </c>
       <c r="H16" t="n">
-        <v>73.81919917407154</v>
+        <v>53.75291824979264</v>
       </c>
       <c r="I16" t="n">
-        <v>40.87309622974143</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.31880839361155</v>
+        <v>44.31880839361162</v>
       </c>
       <c r="S16" t="n">
-        <v>125.0622420268078</v>
+        <v>125.0622420268079</v>
       </c>
       <c r="T16" t="n">
-        <v>145.2432203545648</v>
+        <v>145.2432203545649</v>
       </c>
       <c r="U16" t="n">
-        <v>208.8280783467077</v>
+        <v>208.8280783467078</v>
       </c>
       <c r="V16" t="n">
-        <v>174.7140813407336</v>
+        <v>174.7140813407337</v>
       </c>
       <c r="W16" t="n">
-        <v>209.0994363534966</v>
+        <v>209.0994363534967</v>
       </c>
       <c r="X16" t="n">
         <v>148.2860934059428</v>
       </c>
       <c r="Y16" t="n">
-        <v>141.1610913690004</v>
+        <v>141.1610913690005</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>230.4635783425403</v>
       </c>
       <c r="C17" t="n">
-        <v>213.0026284500672</v>
+        <v>213.0026284500667</v>
       </c>
       <c r="D17" t="n">
         <v>202.4127782997427</v>
@@ -1853,10 +1853,10 @@
         <v>229.6601067513215</v>
       </c>
       <c r="F17" t="n">
-        <v>254.6057824207711</v>
+        <v>254.6057824207712</v>
       </c>
       <c r="G17" t="n">
-        <v>260.2782158169642</v>
+        <v>260.2782158169643</v>
       </c>
       <c r="H17" t="n">
         <v>158.9974901890151</v>
@@ -1895,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>58.76882019686457</v>
+        <v>58.7688201968646</v>
       </c>
       <c r="U17" t="n">
-        <v>98.85504891671775</v>
+        <v>98.85504891671778</v>
       </c>
       <c r="V17" t="n">
         <v>175.4819951491946</v>
@@ -1907,7 +1907,7 @@
         <v>196.9707053964727</v>
       </c>
       <c r="X17" t="n">
-        <v>217.4608373575287</v>
+        <v>217.4608373575288</v>
       </c>
       <c r="Y17" t="n">
         <v>233.9676753351133</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.661760614589747</v>
+        <v>8.661760614590065</v>
       </c>
       <c r="S18" t="n">
-        <v>144.3106173150801</v>
+        <v>144.3106173150811</v>
       </c>
       <c r="T18" t="n">
         <v>194.2248522055965</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.561716860997</v>
+        <v>27.56171686099702</v>
       </c>
       <c r="C19" t="n">
-        <v>14.97655777768753</v>
+        <v>14.97655777768756</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>14.48525054822388</v>
+        <v>14.48525054822391</v>
       </c>
       <c r="H19" t="n">
-        <v>151.2427611571659</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>118.2966582128358</v>
+        <v>27.10964239556424</v>
       </c>
       <c r="J19" t="n">
         <v>6.011770023546006</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>121.7423703767059</v>
       </c>
       <c r="S19" t="n">
-        <v>79.61688704052779</v>
+        <v>202.4858040099022</v>
       </c>
       <c r="T19" t="n">
-        <v>70.3965190167189</v>
+        <v>70.39651901671893</v>
       </c>
       <c r="U19" t="n">
         <v>133.9813770088618</v>
       </c>
       <c r="V19" t="n">
-        <v>99.8673800028877</v>
+        <v>99.86738000288773</v>
       </c>
       <c r="W19" t="n">
         <v>134.2527350156507</v>
       </c>
       <c r="X19" t="n">
-        <v>73.43939206809685</v>
+        <v>73.43939206809688</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.31439003115449</v>
+        <v>66.31439003115452</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>230.4635783425402</v>
+        <v>230.4635783425403</v>
       </c>
       <c r="C20" t="n">
-        <v>213.0026284500672</v>
+        <v>213.0026284500673</v>
       </c>
       <c r="D20" t="n">
-        <v>202.4127782997426</v>
+        <v>202.4127782997427</v>
       </c>
       <c r="E20" t="n">
-        <v>229.6601067513214</v>
+        <v>229.6601067513215</v>
       </c>
       <c r="F20" t="n">
-        <v>254.6057824207711</v>
+        <v>254.6057824207712</v>
       </c>
       <c r="G20" t="n">
-        <v>260.2782158169642</v>
+        <v>260.2782158169643</v>
       </c>
       <c r="H20" t="n">
-        <v>158.997490189015</v>
+        <v>158.9974901890151</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>58.76882019686452</v>
+        <v>58.7688201968646</v>
       </c>
       <c r="U20" t="n">
-        <v>98.85504891671769</v>
+        <v>98.85504891671778</v>
       </c>
       <c r="V20" t="n">
-        <v>175.4819951491945</v>
+        <v>175.4819951491946</v>
       </c>
       <c r="W20" t="n">
         <v>196.9707053964727</v>
       </c>
       <c r="X20" t="n">
-        <v>217.4608373575287</v>
+        <v>217.4608373575288</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.9676753351132</v>
+        <v>233.9676753351133</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>135.8698590135443</v>
       </c>
       <c r="H21" t="n">
-        <v>98.00300894892986</v>
+        <v>98.00300894893083</v>
       </c>
       <c r="I21" t="n">
         <v>38.65884129492198</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.661760614589747</v>
+        <v>8.661760614590065</v>
       </c>
       <c r="S21" t="n">
         <v>144.3106173150801</v>
@@ -2236,31 +2236,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.56171686099694</v>
+        <v>27.56171686099702</v>
       </c>
       <c r="C22" t="n">
-        <v>14.97655777768747</v>
+        <v>14.97655777768756</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4120091032333061</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>14.48525054822382</v>
+        <v>14.48525054822391</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>28.12255701920217</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.011770023546006</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>121.7423703767059</v>
       </c>
       <c r="S22" t="n">
-        <v>50.21554068896182</v>
+        <v>50.21554068896191</v>
       </c>
       <c r="T22" t="n">
-        <v>222.6667823376592</v>
+        <v>70.39651901671893</v>
       </c>
       <c r="U22" t="n">
         <v>286.2516403298021</v>
       </c>
       <c r="V22" t="n">
-        <v>99.86738000288764</v>
+        <v>99.86738000288773</v>
       </c>
       <c r="W22" t="n">
-        <v>134.2527350156506</v>
+        <v>134.2527350156507</v>
       </c>
       <c r="X22" t="n">
-        <v>73.43939206809679</v>
+        <v>73.43939206809688</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.31439003115443</v>
+        <v>66.31439003115452</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>230.4635783425402</v>
+        <v>230.4635783425403</v>
       </c>
       <c r="C23" t="n">
-        <v>213.0026284500672</v>
+        <v>213.0026284500673</v>
       </c>
       <c r="D23" t="n">
-        <v>202.4127782997426</v>
+        <v>202.4127782997427</v>
       </c>
       <c r="E23" t="n">
-        <v>229.6601067513214</v>
+        <v>229.6601067513215</v>
       </c>
       <c r="F23" t="n">
-        <v>254.6057824207711</v>
+        <v>254.6057824207712</v>
       </c>
       <c r="G23" t="n">
-        <v>260.2782158169642</v>
+        <v>260.2782158169643</v>
       </c>
       <c r="H23" t="n">
-        <v>158.997490189015</v>
+        <v>158.9974901890151</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>58.76882019686452</v>
+        <v>58.7688201968646</v>
       </c>
       <c r="U23" t="n">
-        <v>98.85504891671769</v>
+        <v>98.85504891671778</v>
       </c>
       <c r="V23" t="n">
-        <v>175.4819951491945</v>
+        <v>175.4819951491946</v>
       </c>
       <c r="W23" t="n">
         <v>196.9707053964727</v>
       </c>
       <c r="X23" t="n">
-        <v>217.4608373575287</v>
+        <v>217.4608373575288</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.9676753351132</v>
+        <v>233.9676753351133</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>27.56171686099702</v>
       </c>
       <c r="C25" t="n">
-        <v>14.97655777768747</v>
+        <v>14.97655777768756</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>35.75859226941755</v>
+        <v>14.48525054822391</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>21.27334172119304</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>121.7423703767059</v>
       </c>
       <c r="S25" t="n">
-        <v>50.21554068896182</v>
+        <v>202.4858040099022</v>
       </c>
       <c r="T25" t="n">
-        <v>70.39651901671884</v>
+        <v>222.6667823376592</v>
       </c>
       <c r="U25" t="n">
-        <v>133.9813770088617</v>
+        <v>133.9813770088618</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>99.86738000288773</v>
       </c>
       <c r="W25" t="n">
-        <v>134.2527350156506</v>
+        <v>134.2527350156507</v>
       </c>
       <c r="X25" t="n">
-        <v>73.43939206809679</v>
+        <v>73.43939206809688</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.31439003115443</v>
+        <v>66.31439003115452</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>332.5688210022474</v>
       </c>
       <c r="H26" t="n">
-        <v>231.2880953742983</v>
+        <v>231.2880953742982</v>
       </c>
       <c r="I26" t="n">
-        <v>24.31268534657015</v>
+        <v>24.31268534657016</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.27774867944831</v>
+        <v>66.27774867944832</v>
       </c>
       <c r="T26" t="n">
         <v>131.0594253821477</v>
@@ -2652,7 +2652,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I27" t="n">
-        <v>38.65884129492197</v>
+        <v>38.65884129492198</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590065</v>
       </c>
       <c r="S27" t="n">
         <v>144.3106173150801</v>
@@ -2731,7 +2731,7 @@
         <v>71.2631030215088</v>
       </c>
       <c r="I28" t="n">
-        <v>38.31700007717868</v>
+        <v>38.31700007717869</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.7541835278236</v>
+        <v>302.7541835278234</v>
       </c>
       <c r="C29" t="n">
-        <v>285.2932336353505</v>
+        <v>285.2932336353504</v>
       </c>
       <c r="D29" t="n">
-        <v>274.7033834850259</v>
+        <v>274.7033834850258</v>
       </c>
       <c r="E29" t="n">
-        <v>301.9507119366048</v>
+        <v>301.9507119366046</v>
       </c>
       <c r="F29" t="n">
-        <v>326.8963876060544</v>
+        <v>326.8963876060543</v>
       </c>
       <c r="G29" t="n">
-        <v>332.5688210022475</v>
+        <v>332.5688210022474</v>
       </c>
       <c r="H29" t="n">
-        <v>231.2880953742984</v>
+        <v>231.2880953742982</v>
       </c>
       <c r="I29" t="n">
-        <v>24.31268534657029</v>
+        <v>24.31268534657015</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.27774867944845</v>
+        <v>66.27774867944831</v>
       </c>
       <c r="T29" t="n">
-        <v>131.0594253821479</v>
+        <v>131.0594253821477</v>
       </c>
       <c r="U29" t="n">
-        <v>171.145654102001</v>
+        <v>171.1456541020009</v>
       </c>
       <c r="V29" t="n">
-        <v>247.7726003344779</v>
+        <v>247.7726003344777</v>
       </c>
       <c r="W29" t="n">
-        <v>269.261310581756</v>
+        <v>269.2613105817559</v>
       </c>
       <c r="X29" t="n">
-        <v>289.751442542812</v>
+        <v>289.7514425428119</v>
       </c>
       <c r="Y29" t="n">
-        <v>306.2582805203966</v>
+        <v>306.2582805203964</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.85232204628028</v>
+        <v>99.85232204628014</v>
       </c>
       <c r="C31" t="n">
-        <v>87.26716296297081</v>
+        <v>87.26716296297067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.63581488255534</v>
+        <v>68.6358148825552</v>
       </c>
       <c r="E31" t="n">
-        <v>66.45430451091215</v>
+        <v>66.45430451091201</v>
       </c>
       <c r="F31" t="n">
-        <v>65.44138988727423</v>
+        <v>65.44138988727408</v>
       </c>
       <c r="G31" t="n">
-        <v>86.77585573350717</v>
+        <v>86.77585573350703</v>
       </c>
       <c r="H31" t="n">
-        <v>71.2631030215053</v>
+        <v>71.26310302150878</v>
       </c>
       <c r="I31" t="n">
-        <v>38.31700007717881</v>
+        <v>38.31700007717868</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76271224104893</v>
+        <v>41.76271224104879</v>
       </c>
       <c r="S31" t="n">
-        <v>122.5061458742452</v>
+        <v>122.506145874245</v>
       </c>
       <c r="T31" t="n">
-        <v>142.6871242020022</v>
+        <v>142.6871242020021</v>
       </c>
       <c r="U31" t="n">
-        <v>206.2719821941451</v>
+        <v>206.271982194145</v>
       </c>
       <c r="V31" t="n">
-        <v>172.157985188171</v>
+        <v>172.1579851881708</v>
       </c>
       <c r="W31" t="n">
-        <v>206.543340200934</v>
+        <v>206.5433402009338</v>
       </c>
       <c r="X31" t="n">
-        <v>145.7299972533801</v>
+        <v>145.72999725338</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.6049952164378</v>
+        <v>138.6049952164376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>231.2880953742982</v>
       </c>
       <c r="I32" t="n">
-        <v>24.31268534657016</v>
+        <v>24.31268534657015</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.27774867944832</v>
+        <v>66.27774867944831</v>
       </c>
       <c r="T32" t="n">
         <v>131.0594253821477</v>
@@ -3086,7 +3086,7 @@
         <v>171.1456541020009</v>
       </c>
       <c r="V32" t="n">
-        <v>247.7726003344778</v>
+        <v>247.7726003344777</v>
       </c>
       <c r="W32" t="n">
         <v>269.2613105817559</v>
@@ -3095,7 +3095,7 @@
         <v>289.7514425428119</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.2582805203965</v>
+        <v>306.2582805203964</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.85232204628015</v>
+        <v>99.85232204628014</v>
       </c>
       <c r="C34" t="n">
-        <v>87.26716296297069</v>
+        <v>87.26716296297067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.63581488255521</v>
+        <v>68.6358148825552</v>
       </c>
       <c r="E34" t="n">
-        <v>66.45430451091202</v>
+        <v>66.45430451091201</v>
       </c>
       <c r="F34" t="n">
-        <v>65.4413898872741</v>
+        <v>65.44138988727408</v>
       </c>
       <c r="G34" t="n">
-        <v>86.77585573350704</v>
+        <v>86.77585573350702</v>
       </c>
       <c r="H34" t="n">
-        <v>71.2631030215088</v>
+        <v>71.26310302150878</v>
       </c>
       <c r="I34" t="n">
-        <v>38.31700007717869</v>
+        <v>38.31700007717867</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.7627122410488</v>
+        <v>41.76271224104879</v>
       </c>
       <c r="S34" t="n">
         <v>122.506145874245</v>
@@ -3241,19 +3241,19 @@
         <v>142.6871242020021</v>
       </c>
       <c r="U34" t="n">
-        <v>206.271982194145</v>
+        <v>206.2719821941449</v>
       </c>
       <c r="V34" t="n">
-        <v>172.1579851881709</v>
+        <v>172.1579851881708</v>
       </c>
       <c r="W34" t="n">
-        <v>206.5433402009339</v>
+        <v>206.5433402009338</v>
       </c>
       <c r="X34" t="n">
         <v>145.72999725338</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.6049952164377</v>
+        <v>138.6049952164376</v>
       </c>
     </row>
     <row r="35">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1247.053522143281</v>
+        <v>1175.677141777315</v>
       </c>
       <c r="C11" t="n">
-        <v>956.2966233676115</v>
+        <v>884.9202430016455</v>
       </c>
       <c r="D11" t="n">
-        <v>676.2365429256026</v>
+        <v>604.8601625596368</v>
       </c>
       <c r="E11" t="n">
-        <v>368.6539084921002</v>
+        <v>604.8601625596368</v>
       </c>
       <c r="F11" t="n">
-        <v>35.87362186723428</v>
+        <v>272.0798759347709</v>
       </c>
       <c r="G11" t="n">
-        <v>35.87362186723428</v>
+        <v>272.0798759347709</v>
       </c>
       <c r="H11" t="n">
         <v>35.87362186723428</v>
@@ -5039,28 +5039,28 @@
         <v>35.87362186723428</v>
       </c>
       <c r="J11" t="n">
-        <v>88.06477096083677</v>
+        <v>255.4704199811898</v>
       </c>
       <c r="K11" t="n">
-        <v>217.024292538413</v>
+        <v>384.429941558766</v>
       </c>
       <c r="L11" t="n">
-        <v>660.9603631454372</v>
+        <v>581.3173933146317</v>
       </c>
       <c r="M11" t="n">
-        <v>911.7050268185022</v>
+        <v>832.0620569876967</v>
       </c>
       <c r="N11" t="n">
-        <v>1171.120809674105</v>
+        <v>1275.998127594721</v>
       </c>
       <c r="O11" t="n">
-        <v>1533.212988301219</v>
+        <v>1507.621833932279</v>
       </c>
       <c r="P11" t="n">
-        <v>1696.397461997532</v>
+        <v>1670.806307628592</v>
       </c>
       <c r="Q11" t="n">
-        <v>1770.769459162634</v>
+        <v>1793.681093361714</v>
       </c>
       <c r="R11" t="n">
         <v>1793.681093361714</v>
@@ -5075,16 +5075,16 @@
         <v>1658.71592009433</v>
       </c>
       <c r="V11" t="n">
-        <v>1658.71592009433</v>
+        <v>1405.858650915501</v>
       </c>
       <c r="W11" t="n">
-        <v>1658.71592009433</v>
+        <v>1175.677141777315</v>
       </c>
       <c r="X11" t="n">
-        <v>1658.71592009433</v>
+        <v>1175.677141777315</v>
       </c>
       <c r="Y11" t="n">
-        <v>1346.78220628326</v>
+        <v>1175.677141777315</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>610.8682407711963</v>
+        <v>689.0738589359381</v>
       </c>
       <c r="C12" t="n">
-        <v>514.6208296548109</v>
+        <v>592.8264478195529</v>
       </c>
       <c r="D12" t="n">
-        <v>443.8920381583013</v>
+        <v>522.0976563230433</v>
       </c>
       <c r="E12" t="n">
-        <v>362.8602013175876</v>
+        <v>362.8602013175878</v>
       </c>
       <c r="F12" t="n">
-        <v>216.3256433444725</v>
+        <v>216.3256433444728</v>
       </c>
       <c r="G12" t="n">
-        <v>157.2889796773513</v>
+        <v>79.08336151260986</v>
       </c>
       <c r="H12" t="n">
-        <v>58.29604134509889</v>
+        <v>35.87362186723428</v>
       </c>
       <c r="I12" t="n">
         <v>35.87362186723428</v>
       </c>
       <c r="J12" t="n">
-        <v>77.25089267422504</v>
+        <v>172.9705907522305</v>
       </c>
       <c r="K12" t="n">
-        <v>438.1922920974194</v>
+        <v>528.1964794538176</v>
       </c>
       <c r="L12" t="n">
-        <v>617.7950009935795</v>
+        <v>707.7991883499777</v>
       </c>
       <c r="M12" t="n">
-        <v>846.739759135166</v>
+        <v>936.7439464915642</v>
       </c>
       <c r="N12" t="n">
-        <v>1096.152648694118</v>
+        <v>1186.156836050516</v>
       </c>
       <c r="O12" t="n">
-        <v>1302.096920678759</v>
+        <v>1392.101108035157</v>
       </c>
       <c r="P12" t="n">
-        <v>1746.032991285783</v>
+        <v>1538.056476427293</v>
       </c>
       <c r="Q12" t="n">
         <v>1793.681093361714</v>
@@ -5145,10 +5145,10 @@
         <v>1784.931840215664</v>
       </c>
       <c r="S12" t="n">
-        <v>1639.163539897401</v>
+        <v>1717.369158062143</v>
       </c>
       <c r="T12" t="n">
-        <v>1521.18243866255</v>
+        <v>1599.388056827292</v>
       </c>
       <c r="U12" t="n">
         <v>1371.262369062728</v>
@@ -5163,7 +5163,7 @@
         <v>908.6382583914765</v>
       </c>
       <c r="Y12" t="n">
-        <v>779.0835777912642</v>
+        <v>779.0835777912644</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.9921109014227</v>
+        <v>481.4371844832225</v>
       </c>
       <c r="C13" t="n">
-        <v>452.2615461382575</v>
+        <v>390.7066197200573</v>
       </c>
       <c r="D13" t="n">
-        <v>380.3505248906635</v>
+        <v>380.3505248906633</v>
       </c>
       <c r="E13" t="n">
-        <v>310.6430494730121</v>
+        <v>310.643049473012</v>
       </c>
       <c r="F13" t="n">
-        <v>241.9587201398435</v>
+        <v>241.9587201398433</v>
       </c>
       <c r="G13" t="n">
-        <v>151.7244253054294</v>
+        <v>151.7244253054293</v>
       </c>
       <c r="H13" t="n">
-        <v>77.15957765485201</v>
+        <v>77.15957765485197</v>
       </c>
       <c r="I13" t="n">
         <v>35.87362186723428</v>
       </c>
       <c r="J13" t="n">
-        <v>106.5712959071873</v>
+        <v>106.5712959071871</v>
       </c>
       <c r="K13" t="n">
-        <v>303.2770659414891</v>
+        <v>303.277065941489</v>
       </c>
       <c r="L13" t="n">
-        <v>589.0837408197776</v>
+        <v>589.0837408197773</v>
       </c>
       <c r="M13" t="n">
-        <v>896.649288262421</v>
+        <v>896.6492882624208</v>
       </c>
       <c r="N13" t="n">
         <v>1204.158780512782</v>
@@ -5227,22 +5227,22 @@
         <v>1622.589123240078</v>
       </c>
       <c r="T13" t="n">
-        <v>1475.878799649608</v>
+        <v>1475.878799649609</v>
       </c>
       <c r="U13" t="n">
-        <v>1264.941346774146</v>
+        <v>1264.941346774148</v>
       </c>
       <c r="V13" t="n">
-        <v>1150.017403151204</v>
+        <v>1088.462476733003</v>
       </c>
       <c r="W13" t="n">
-        <v>938.8058512789847</v>
+        <v>877.2509248607844</v>
       </c>
       <c r="X13" t="n">
-        <v>789.0219185457091</v>
+        <v>727.4669921275088</v>
       </c>
       <c r="Y13" t="n">
-        <v>646.4349575669207</v>
+        <v>584.8800311487205</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1224.846710849955</v>
+        <v>1129.797013568111</v>
       </c>
       <c r="C14" t="n">
-        <v>934.0898120742847</v>
+        <v>1129.797013568111</v>
       </c>
       <c r="D14" t="n">
-        <v>654.029731632276</v>
+        <v>849.7369331261018</v>
       </c>
       <c r="E14" t="n">
-        <v>654.029731632276</v>
+        <v>542.1542986925992</v>
       </c>
       <c r="F14" t="n">
-        <v>654.029731632276</v>
+        <v>542.1542986925992</v>
       </c>
       <c r="G14" t="n">
-        <v>315.519714304185</v>
+        <v>203.6442813645081</v>
       </c>
       <c r="H14" t="n">
-        <v>79.31346023664858</v>
+        <v>79.31346023664956</v>
       </c>
       <c r="I14" t="n">
-        <v>52.17327690419117</v>
+        <v>52.1732769041912</v>
       </c>
       <c r="J14" t="n">
-        <v>271.7700750181467</v>
+        <v>108.8634888934659</v>
       </c>
       <c r="K14" t="n">
-        <v>400.7295965957229</v>
+        <v>237.8230104710422</v>
       </c>
       <c r="L14" t="n">
-        <v>1011.101650756534</v>
+        <v>848.1950646318537</v>
       </c>
       <c r="M14" t="n">
-        <v>1261.846314429599</v>
+        <v>1493.83936632122</v>
       </c>
       <c r="N14" t="n">
-        <v>1907.490616118965</v>
+        <v>2139.483668010586</v>
       </c>
       <c r="O14" t="n">
-        <v>2348.195740149063</v>
+        <v>2371.107374348144</v>
       </c>
       <c r="P14" t="n">
-        <v>2511.380213845376</v>
+        <v>2534.291848044457</v>
       </c>
       <c r="Q14" t="n">
-        <v>2585.752211010479</v>
+        <v>2608.66384520956</v>
       </c>
       <c r="R14" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.66384520956</v>
       </c>
       <c r="S14" t="n">
-        <v>2539.134709015608</v>
+        <v>2608.66384520956</v>
       </c>
       <c r="T14" t="n">
-        <v>2404.169535748224</v>
+        <v>2473.698671942176</v>
       </c>
       <c r="U14" t="n">
-        <v>2228.713222359776</v>
+        <v>2298.242358553728</v>
       </c>
       <c r="V14" t="n">
-        <v>1975.855953180946</v>
+        <v>2045.385089374899</v>
       </c>
       <c r="W14" t="n">
-        <v>1975.855953180946</v>
+        <v>2045.385089374899</v>
       </c>
       <c r="X14" t="n">
-        <v>1845.174646560405</v>
+        <v>1750.124949278561</v>
       </c>
       <c r="Y14" t="n">
-        <v>1533.240932749335</v>
+        <v>1438.191235467491</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>956.6172836305906</v>
+        <v>956.6172836305916</v>
       </c>
       <c r="C15" t="n">
-        <v>782.1642543494636</v>
+        <v>782.1642543494646</v>
       </c>
       <c r="D15" t="n">
-        <v>633.2298446882123</v>
+        <v>633.2298446882133</v>
       </c>
       <c r="E15" t="n">
-        <v>473.9923896827569</v>
+        <v>473.9923896827578</v>
       </c>
       <c r="F15" t="n">
-        <v>327.4578317096418</v>
+        <v>327.4578317096428</v>
       </c>
       <c r="G15" t="n">
-        <v>190.2155498777789</v>
+        <v>190.2155498777799</v>
       </c>
       <c r="H15" t="n">
-        <v>91.2226115455265</v>
+        <v>91.22261154552653</v>
       </c>
       <c r="I15" t="n">
-        <v>52.17327690419117</v>
+        <v>52.1732769041912</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2702457891874</v>
+        <v>189.2702457891875</v>
       </c>
       <c r="K15" t="n">
-        <v>472.514251225777</v>
+        <v>550.2116452123819</v>
       </c>
       <c r="L15" t="n">
-        <v>1019.248901972362</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M15" t="n">
-        <v>1248.193660113948</v>
+        <v>1436.448557385872</v>
       </c>
       <c r="N15" t="n">
-        <v>1893.837961803314</v>
+        <v>1685.861446944825</v>
       </c>
       <c r="O15" t="n">
-        <v>2099.782233787955</v>
+        <v>1891.805718929465</v>
       </c>
       <c r="P15" t="n">
-        <v>2561.015743133628</v>
+        <v>2353.039228275139</v>
       </c>
       <c r="Q15" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.66384520956</v>
       </c>
       <c r="R15" t="n">
-        <v>2599.914592063508</v>
+        <v>2599.914592063509</v>
       </c>
       <c r="S15" t="n">
-        <v>2454.146291745245</v>
+        <v>2454.146291745246</v>
       </c>
       <c r="T15" t="n">
-        <v>2257.959572345652</v>
+        <v>2257.959572345654</v>
       </c>
       <c r="U15" t="n">
-        <v>2029.833884581089</v>
+        <v>2029.833884581091</v>
       </c>
       <c r="V15" t="n">
-        <v>1794.681776349346</v>
+        <v>1794.681776349348</v>
       </c>
       <c r="W15" t="n">
-        <v>1540.444419621145</v>
+        <v>1540.444419621146</v>
       </c>
       <c r="X15" t="n">
-        <v>1332.592919415612</v>
+        <v>1332.592919415614</v>
       </c>
       <c r="Y15" t="n">
-        <v>1124.832620650659</v>
+        <v>1124.83262065066</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>497.736839520178</v>
+        <v>497.7368395201773</v>
       </c>
       <c r="C16" t="n">
-        <v>468.5612011752138</v>
+        <v>407.0062747570121</v>
       </c>
       <c r="D16" t="n">
-        <v>396.6501799276199</v>
+        <v>335.0952535094182</v>
       </c>
       <c r="E16" t="n">
-        <v>326.9427045099686</v>
+        <v>265.3877780917668</v>
       </c>
       <c r="F16" t="n">
-        <v>258.2583751767999</v>
+        <v>196.7034487585982</v>
       </c>
       <c r="G16" t="n">
-        <v>168.024080342386</v>
+        <v>106.4691539241838</v>
       </c>
       <c r="H16" t="n">
-        <v>93.45923269180878</v>
+        <v>52.1732769041912</v>
       </c>
       <c r="I16" t="n">
-        <v>52.17327690419117</v>
+        <v>52.1732769041912</v>
       </c>
       <c r="J16" t="n">
-        <v>122.8709509441441</v>
+        <v>122.870950944144</v>
       </c>
       <c r="K16" t="n">
-        <v>319.576720978446</v>
+        <v>319.5767209784458</v>
       </c>
       <c r="L16" t="n">
-        <v>605.3833958567345</v>
+        <v>605.3833958567342</v>
       </c>
       <c r="M16" t="n">
-        <v>912.948943299378</v>
+        <v>912.9489432993774</v>
       </c>
       <c r="N16" t="n">
-        <v>1220.458435549739</v>
+        <v>1220.458435549738</v>
       </c>
       <c r="O16" t="n">
-        <v>1494.328195395871</v>
+        <v>1494.32819539587</v>
       </c>
       <c r="P16" t="n">
         <v>1716.212991257554</v>
       </c>
       <c r="Q16" t="n">
-        <v>1809.980748398672</v>
+        <v>1809.980748398671</v>
       </c>
       <c r="R16" t="n">
-        <v>1765.214275273812</v>
+        <v>1765.214275273811</v>
       </c>
       <c r="S16" t="n">
-        <v>1638.888778277036</v>
+        <v>1638.888778277035</v>
       </c>
       <c r="T16" t="n">
-        <v>1492.178454686567</v>
+        <v>1492.178454686566</v>
       </c>
       <c r="U16" t="n">
-        <v>1281.241001811104</v>
+        <v>1281.241001811103</v>
       </c>
       <c r="V16" t="n">
-        <v>1104.762131769959</v>
+        <v>1104.762131769958</v>
       </c>
       <c r="W16" t="n">
-        <v>893.5505798977402</v>
+        <v>893.5505798977392</v>
       </c>
       <c r="X16" t="n">
-        <v>743.7666471644641</v>
+        <v>743.7666471644636</v>
       </c>
       <c r="Y16" t="n">
-        <v>601.1796861856758</v>
+        <v>601.1796861856752</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1384.453076831345</v>
+        <v>1384.453076831346</v>
       </c>
       <c r="C17" t="n">
-        <v>1169.298906679762</v>
+        <v>1169.298906679763</v>
       </c>
       <c r="D17" t="n">
-        <v>964.8415548618397</v>
+        <v>964.8415548618415</v>
       </c>
       <c r="E17" t="n">
-        <v>732.861649052424</v>
+        <v>732.8616490524258</v>
       </c>
       <c r="F17" t="n">
-        <v>475.6840910516451</v>
+        <v>475.6840910516469</v>
       </c>
       <c r="G17" t="n">
-        <v>212.7768023476407</v>
+        <v>212.7768023476408</v>
       </c>
       <c r="H17" t="n">
-        <v>52.17327690419117</v>
+        <v>52.1732769041912</v>
       </c>
       <c r="I17" t="n">
-        <v>52.17327690419117</v>
+        <v>52.1732769041912</v>
       </c>
       <c r="J17" t="n">
         <v>271.7700750181467</v>
       </c>
       <c r="K17" t="n">
-        <v>436.1115964897851</v>
+        <v>400.7295965957229</v>
       </c>
       <c r="L17" t="n">
-        <v>632.9990482456508</v>
+        <v>597.6170483515886</v>
       </c>
       <c r="M17" t="n">
-        <v>883.7437119187158</v>
+        <v>848.3617120246536</v>
       </c>
       <c r="N17" t="n">
-        <v>1529.388013608082</v>
+        <v>1494.00601371402</v>
       </c>
       <c r="O17" t="n">
-        <v>2138.003899395758</v>
+        <v>1842.334812505071</v>
       </c>
       <c r="P17" t="n">
-        <v>2301.18837309207</v>
+        <v>2324.100007291152</v>
       </c>
       <c r="Q17" t="n">
-        <v>2585.752211010479</v>
+        <v>2608.66384520956</v>
       </c>
       <c r="R17" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.66384520956</v>
       </c>
       <c r="S17" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.66384520956</v>
       </c>
       <c r="T17" t="n">
-        <v>2549.301400566261</v>
+        <v>2549.301400566262</v>
       </c>
       <c r="U17" t="n">
-        <v>2449.4478158019</v>
+        <v>2449.447815801901</v>
       </c>
       <c r="V17" t="n">
-        <v>2272.193275247158</v>
+        <v>2272.193275247159</v>
       </c>
       <c r="W17" t="n">
-        <v>2073.232966765872</v>
+        <v>2073.232966765874</v>
       </c>
       <c r="X17" t="n">
-        <v>1853.575555293621</v>
+        <v>1853.575555293622</v>
       </c>
       <c r="Y17" t="n">
-        <v>1617.244570106638</v>
+        <v>1617.244570106639</v>
       </c>
     </row>
     <row r="18">
@@ -5580,43 +5580,43 @@
         <v>473.9923896827569</v>
       </c>
       <c r="F18" t="n">
-        <v>327.4578317096418</v>
+        <v>327.4578317096419</v>
       </c>
       <c r="G18" t="n">
         <v>190.2155498777789</v>
       </c>
       <c r="H18" t="n">
-        <v>91.2226115455265</v>
+        <v>91.22261154552653</v>
       </c>
       <c r="I18" t="n">
-        <v>52.17327690419117</v>
+        <v>52.1732769041912</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2702457891874</v>
+        <v>189.2702457891875</v>
       </c>
       <c r="K18" t="n">
-        <v>550.2116452123818</v>
+        <v>550.2116452123819</v>
       </c>
       <c r="L18" t="n">
-        <v>1096.946295958966</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M18" t="n">
-        <v>1355.495286208995</v>
+        <v>1436.448557385872</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.139587898361</v>
+        <v>1685.861446944825</v>
       </c>
       <c r="O18" t="n">
-        <v>2207.083859883002</v>
+        <v>1891.805718929465</v>
       </c>
       <c r="P18" t="n">
-        <v>2353.039228275137</v>
+        <v>2353.039228275139</v>
       </c>
       <c r="Q18" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.66384520956</v>
       </c>
       <c r="R18" t="n">
-        <v>2599.914592063508</v>
+        <v>2599.914592063509</v>
       </c>
       <c r="S18" t="n">
         <v>2454.146291745245</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>510.3838534068898</v>
+        <v>263.3017449765052</v>
       </c>
       <c r="C19" t="n">
-        <v>495.2560172678114</v>
+        <v>248.1739088374269</v>
       </c>
       <c r="D19" t="n">
-        <v>345.1393778554757</v>
+        <v>248.1739088374269</v>
       </c>
       <c r="E19" t="n">
-        <v>345.1393778554757</v>
+        <v>100.2608152550338</v>
       </c>
       <c r="F19" t="n">
-        <v>345.1393778554757</v>
+        <v>100.2608152550338</v>
       </c>
       <c r="G19" t="n">
-        <v>330.5078116451485</v>
+        <v>85.6292490447066</v>
       </c>
       <c r="H19" t="n">
-        <v>177.7373458298294</v>
+        <v>85.6292490447066</v>
       </c>
       <c r="I19" t="n">
-        <v>58.24577187746996</v>
+        <v>58.24577187746999</v>
       </c>
       <c r="J19" t="n">
-        <v>52.17327690419117</v>
+        <v>52.1732769041912</v>
       </c>
       <c r="K19" t="n">
         <v>172.2297205752297</v>
       </c>
       <c r="L19" t="n">
-        <v>381.3870690902546</v>
+        <v>381.3870690902547</v>
       </c>
       <c r="M19" t="n">
         <v>612.3032901696347</v>
@@ -5695,28 +5695,28 @@
         <v>1202.737789815875</v>
       </c>
       <c r="R19" t="n">
-        <v>1202.737789815875</v>
+        <v>1079.765698526273</v>
       </c>
       <c r="S19" t="n">
-        <v>1122.31669179514</v>
+        <v>875.2345833647553</v>
       </c>
       <c r="T19" t="n">
-        <v>1051.209096828757</v>
+        <v>804.1269883983725</v>
       </c>
       <c r="U19" t="n">
-        <v>915.8743725773813</v>
+        <v>668.792264146997</v>
       </c>
       <c r="V19" t="n">
-        <v>814.998231160323</v>
+        <v>567.9161227299387</v>
       </c>
       <c r="W19" t="n">
-        <v>679.389407912191</v>
+        <v>432.3072994818066</v>
       </c>
       <c r="X19" t="n">
-        <v>605.2082038030023</v>
+        <v>358.1260953726179</v>
       </c>
       <c r="Y19" t="n">
-        <v>538.2239714483009</v>
+        <v>291.1418630179164</v>
       </c>
     </row>
     <row r="20">
@@ -5732,64 +5732,64 @@
         <v>1169.298906679762</v>
       </c>
       <c r="D20" t="n">
-        <v>964.8415548618402</v>
+        <v>964.84155486184</v>
       </c>
       <c r="E20" t="n">
-        <v>732.8616490524246</v>
+        <v>732.8616490524248</v>
       </c>
       <c r="F20" t="n">
         <v>475.6840910516457</v>
       </c>
       <c r="G20" t="n">
-        <v>212.7768023476407</v>
+        <v>212.7768023476408</v>
       </c>
       <c r="H20" t="n">
-        <v>52.17327690419117</v>
+        <v>52.1732769041912</v>
       </c>
       <c r="I20" t="n">
-        <v>52.17327690419117</v>
+        <v>52.1732769041912</v>
       </c>
       <c r="J20" t="n">
-        <v>271.7700750181467</v>
+        <v>104.3644259977937</v>
       </c>
       <c r="K20" t="n">
-        <v>721.633555041176</v>
+        <v>233.3239475753699</v>
       </c>
       <c r="L20" t="n">
-        <v>918.5210067970417</v>
+        <v>843.6960017361814</v>
       </c>
       <c r="M20" t="n">
-        <v>1169.265670470107</v>
+        <v>1489.340303425548</v>
       </c>
       <c r="N20" t="n">
-        <v>1814.909972159473</v>
+        <v>2134.984605114913</v>
       </c>
       <c r="O20" t="n">
-        <v>2138.003899395758</v>
+        <v>2371.107374348144</v>
       </c>
       <c r="P20" t="n">
-        <v>2301.18837309207</v>
+        <v>2534.291848044457</v>
       </c>
       <c r="Q20" t="n">
-        <v>2585.752211010479</v>
+        <v>2608.66384520956</v>
       </c>
       <c r="R20" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.66384520956</v>
       </c>
       <c r="S20" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.66384520956</v>
       </c>
       <c r="T20" t="n">
-        <v>2549.301400566261</v>
+        <v>2549.301400566262</v>
       </c>
       <c r="U20" t="n">
-        <v>2449.4478158019</v>
+        <v>2449.447815801901</v>
       </c>
       <c r="V20" t="n">
         <v>2272.193275247158</v>
       </c>
       <c r="W20" t="n">
-        <v>2073.232966765872</v>
+        <v>2073.232966765873</v>
       </c>
       <c r="X20" t="n">
         <v>1853.575555293621</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>956.6172836305906</v>
+        <v>956.6172836305916</v>
       </c>
       <c r="C21" t="n">
-        <v>782.1642543494636</v>
+        <v>782.1642543494646</v>
       </c>
       <c r="D21" t="n">
-        <v>633.2298446882123</v>
+        <v>633.2298446882133</v>
       </c>
       <c r="E21" t="n">
-        <v>473.9923896827569</v>
+        <v>473.9923896827578</v>
       </c>
       <c r="F21" t="n">
-        <v>327.4578317096418</v>
+        <v>327.4578317096428</v>
       </c>
       <c r="G21" t="n">
-        <v>190.2155498777789</v>
+        <v>190.2155498777799</v>
       </c>
       <c r="H21" t="n">
-        <v>91.2226115455265</v>
+        <v>91.22261154552653</v>
       </c>
       <c r="I21" t="n">
-        <v>52.17327690419117</v>
+        <v>52.1732769041912</v>
       </c>
       <c r="J21" t="n">
-        <v>64.44012080218269</v>
+        <v>189.2702457891875</v>
       </c>
       <c r="K21" t="n">
-        <v>163.5609355829243</v>
+        <v>550.2116452123819</v>
       </c>
       <c r="L21" t="n">
-        <v>710.295586329509</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M21" t="n">
-        <v>1355.939888018875</v>
+        <v>1436.448557385872</v>
       </c>
       <c r="N21" t="n">
-        <v>1605.352777577827</v>
+        <v>1685.861446944825</v>
       </c>
       <c r="O21" t="n">
-        <v>1891.805718929464</v>
+        <v>1891.805718929465</v>
       </c>
       <c r="P21" t="n">
-        <v>2353.039228275137</v>
+        <v>2353.039228275139</v>
       </c>
       <c r="Q21" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.66384520956</v>
       </c>
       <c r="R21" t="n">
-        <v>2599.914592063508</v>
+        <v>2599.914592063509</v>
       </c>
       <c r="S21" t="n">
-        <v>2454.146291745245</v>
+        <v>2454.146291745246</v>
       </c>
       <c r="T21" t="n">
-        <v>2257.959572345653</v>
+        <v>2257.959572345654</v>
       </c>
       <c r="U21" t="n">
-        <v>2029.833884581089</v>
+        <v>2029.833884581091</v>
       </c>
       <c r="V21" t="n">
-        <v>1794.681776349347</v>
+        <v>1794.681776349348</v>
       </c>
       <c r="W21" t="n">
-        <v>1540.444419621145</v>
+        <v>1540.444419621146</v>
       </c>
       <c r="X21" t="n">
-        <v>1332.592919415612</v>
+        <v>1332.592919415614</v>
       </c>
       <c r="Y21" t="n">
-        <v>1124.832620650659</v>
+        <v>1124.83262065066</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>232.465489477279</v>
+        <v>263.3017449765052</v>
       </c>
       <c r="C22" t="n">
-        <v>217.3376533382008</v>
+        <v>248.1739088374269</v>
       </c>
       <c r="D22" t="n">
-        <v>67.22101392586504</v>
+        <v>248.1739088374269</v>
       </c>
       <c r="E22" t="n">
-        <v>67.22101392586504</v>
+        <v>248.1739088374269</v>
       </c>
       <c r="F22" t="n">
-        <v>66.80484311451826</v>
+        <v>101.2839613395165</v>
       </c>
       <c r="G22" t="n">
-        <v>52.17327690419117</v>
+        <v>86.65239512918936</v>
       </c>
       <c r="H22" t="n">
-        <v>52.17327690419117</v>
+        <v>86.65239512918936</v>
       </c>
       <c r="I22" t="n">
-        <v>52.17327690419117</v>
+        <v>58.24577187746999</v>
       </c>
       <c r="J22" t="n">
-        <v>52.17327690419117</v>
+        <v>52.1732769041912</v>
       </c>
       <c r="K22" t="n">
         <v>172.2297205752297</v>
       </c>
       <c r="L22" t="n">
-        <v>381.3870690902546</v>
+        <v>381.3870690902547</v>
       </c>
       <c r="M22" t="n">
         <v>612.3032901696347</v>
@@ -5932,28 +5932,28 @@
         <v>1202.737789815875</v>
       </c>
       <c r="R22" t="n">
-        <v>1202.737789815875</v>
+        <v>1079.765698526273</v>
       </c>
       <c r="S22" t="n">
-        <v>1152.015021443186</v>
+        <v>1029.042930153584</v>
       </c>
       <c r="T22" t="n">
-        <v>927.0990796879746</v>
+        <v>957.9353351872012</v>
       </c>
       <c r="U22" t="n">
-        <v>637.9560086477704</v>
+        <v>668.792264146997</v>
       </c>
       <c r="V22" t="n">
-        <v>537.0798672307122</v>
+        <v>567.9161227299387</v>
       </c>
       <c r="W22" t="n">
-        <v>401.4710439825802</v>
+        <v>432.3072994818066</v>
       </c>
       <c r="X22" t="n">
-        <v>327.2898398733915</v>
+        <v>358.1260953726179</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.3056075186901</v>
+        <v>291.1418630179164</v>
       </c>
     </row>
     <row r="23">
@@ -5969,46 +5969,46 @@
         <v>1169.298906679761</v>
       </c>
       <c r="D23" t="n">
-        <v>964.8415548618391</v>
+        <v>964.8415548618393</v>
       </c>
       <c r="E23" t="n">
-        <v>732.8616490524237</v>
+        <v>732.8616490524238</v>
       </c>
       <c r="F23" t="n">
-        <v>475.6840910516451</v>
+        <v>475.6840910516448</v>
       </c>
       <c r="G23" t="n">
-        <v>212.7768023476407</v>
+        <v>212.7768023476408</v>
       </c>
       <c r="H23" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="I23" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J23" t="n">
-        <v>271.7700750181467</v>
+        <v>104.3644259977937</v>
       </c>
       <c r="K23" t="n">
-        <v>400.7295965957229</v>
+        <v>237.8230104710417</v>
       </c>
       <c r="L23" t="n">
-        <v>597.6170483515886</v>
+        <v>848.1950646318533</v>
       </c>
       <c r="M23" t="n">
-        <v>848.3617120246536</v>
+        <v>1493.839366321219</v>
       </c>
       <c r="N23" t="n">
-        <v>1210.807292518314</v>
+        <v>2139.483668010585</v>
       </c>
       <c r="O23" t="n">
-        <v>1819.42317830599</v>
+        <v>2371.107374348143</v>
       </c>
       <c r="P23" t="n">
-        <v>2301.18837309207</v>
+        <v>2534.291848044456</v>
       </c>
       <c r="Q23" t="n">
-        <v>2585.752211010479</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="R23" t="n">
         <v>2608.663845209559</v>
@@ -6017,22 +6017,22 @@
         <v>2608.663845209559</v>
       </c>
       <c r="T23" t="n">
-        <v>2549.30140056626</v>
+        <v>2549.301400566261</v>
       </c>
       <c r="U23" t="n">
-        <v>2449.447815801899</v>
+        <v>2449.4478158019</v>
       </c>
       <c r="V23" t="n">
-        <v>2272.193275247157</v>
+        <v>2272.193275247158</v>
       </c>
       <c r="W23" t="n">
-        <v>2073.232966765871</v>
+        <v>2073.232966765872</v>
       </c>
       <c r="X23" t="n">
-        <v>1853.57555529362</v>
+        <v>1853.575555293621</v>
       </c>
       <c r="Y23" t="n">
-        <v>1617.244570106637</v>
+        <v>1617.244570106638</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.61728363059</v>
+        <v>956.6172836305909</v>
       </c>
       <c r="C24" t="n">
-        <v>782.164254349463</v>
+        <v>782.1642543494639</v>
       </c>
       <c r="D24" t="n">
-        <v>633.2298446882119</v>
+        <v>633.2298446882128</v>
       </c>
       <c r="E24" t="n">
-        <v>473.9923896827563</v>
+        <v>473.9923896827572</v>
       </c>
       <c r="F24" t="n">
-        <v>327.4578317096414</v>
+        <v>327.4578317096423</v>
       </c>
       <c r="G24" t="n">
-        <v>190.2155498777789</v>
+        <v>190.2155498777793</v>
       </c>
       <c r="H24" t="n">
-        <v>91.2226115455265</v>
+        <v>91.22261154552652</v>
       </c>
       <c r="I24" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J24" t="n">
-        <v>64.44012080218269</v>
+        <v>64.4401208021827</v>
       </c>
       <c r="K24" t="n">
-        <v>377.4005646779868</v>
+        <v>163.5609355829243</v>
       </c>
       <c r="L24" t="n">
-        <v>924.1352154245716</v>
+        <v>343.1636444790844</v>
       </c>
       <c r="M24" t="n">
-        <v>1569.779517113937</v>
+        <v>988.8079461684503</v>
       </c>
       <c r="N24" t="n">
-        <v>1819.19240667289</v>
+        <v>1503.914265719352</v>
       </c>
       <c r="O24" t="n">
-        <v>2415.060374741493</v>
+        <v>2099.782233787955</v>
       </c>
       <c r="P24" t="n">
         <v>2561.015743133628</v>
@@ -6090,28 +6090,28 @@
         <v>2608.663845209559</v>
       </c>
       <c r="R24" t="n">
-        <v>2599.914592063508</v>
+        <v>2599.914592063509</v>
       </c>
       <c r="S24" t="n">
-        <v>2454.146291745245</v>
+        <v>2454.146291745246</v>
       </c>
       <c r="T24" t="n">
-        <v>2257.959572345653</v>
+        <v>2257.959572345654</v>
       </c>
       <c r="U24" t="n">
-        <v>2029.833884581089</v>
+        <v>2029.83388458109</v>
       </c>
       <c r="V24" t="n">
-        <v>1794.681776349347</v>
+        <v>1794.681776349348</v>
       </c>
       <c r="W24" t="n">
-        <v>1540.444419621145</v>
+        <v>1540.444419621146</v>
       </c>
       <c r="X24" t="n">
-        <v>1332.592919415612</v>
+        <v>1332.592919415613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1124.832620650658</v>
+        <v>1124.832620650659</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>109.4933981876771</v>
+        <v>109.4933981876765</v>
       </c>
       <c r="C25" t="n">
-        <v>94.3655620485988</v>
+        <v>94.36556204859821</v>
       </c>
       <c r="D25" t="n">
-        <v>94.3655620485988</v>
+        <v>94.36556204859821</v>
       </c>
       <c r="E25" t="n">
-        <v>94.3655620485988</v>
+        <v>94.36556204859821</v>
       </c>
       <c r="F25" t="n">
-        <v>94.3655620485988</v>
+        <v>94.36556204859821</v>
       </c>
       <c r="G25" t="n">
-        <v>58.24577187746996</v>
+        <v>79.73399583827103</v>
       </c>
       <c r="H25" t="n">
-        <v>58.24577187746996</v>
+        <v>58.24577187746998</v>
       </c>
       <c r="I25" t="n">
-        <v>58.24577187746996</v>
+        <v>58.24577187746998</v>
       </c>
       <c r="J25" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="K25" t="n">
         <v>172.2297205752297</v>
       </c>
       <c r="L25" t="n">
-        <v>381.3870690902546</v>
+        <v>381.3870690902547</v>
       </c>
       <c r="M25" t="n">
         <v>612.3032901696347</v>
@@ -6172,25 +6172,25 @@
         <v>1079.765698526273</v>
       </c>
       <c r="S25" t="n">
-        <v>1029.042930153584</v>
+        <v>875.2345833647553</v>
       </c>
       <c r="T25" t="n">
-        <v>957.9353351872013</v>
+        <v>650.3186416095439</v>
       </c>
       <c r="U25" t="n">
-        <v>822.6006109358258</v>
+        <v>514.9839173581684</v>
       </c>
       <c r="V25" t="n">
-        <v>567.9161227299389</v>
+        <v>414.10777594111</v>
       </c>
       <c r="W25" t="n">
-        <v>432.3072994818069</v>
+        <v>278.498952692978</v>
       </c>
       <c r="X25" t="n">
-        <v>358.1260953726182</v>
+        <v>204.3177485837892</v>
       </c>
       <c r="Y25" t="n">
-        <v>291.1418630179168</v>
+        <v>137.3335162290877</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1868.376552566037</v>
+        <v>1868.376552566036</v>
       </c>
       <c r="C26" t="n">
-        <v>1580.201569095986</v>
+        <v>1580.201569095985</v>
       </c>
       <c r="D26" t="n">
-        <v>1302.723403959596</v>
+        <v>1302.723403959595</v>
       </c>
       <c r="E26" t="n">
-        <v>997.7226848317127</v>
+        <v>997.7226848317116</v>
       </c>
       <c r="F26" t="n">
-        <v>667.5243135124661</v>
+        <v>667.5243135124649</v>
       </c>
       <c r="G26" t="n">
-        <v>331.5962114899939</v>
+        <v>331.5962114899931</v>
       </c>
       <c r="H26" t="n">
-        <v>97.9718727280757</v>
+        <v>97.97187272807568</v>
       </c>
       <c r="I26" t="n">
-        <v>73.41360470123716</v>
+        <v>73.41360470123713</v>
       </c>
       <c r="J26" t="n">
-        <v>293.0104028151927</v>
+        <v>125.6047537948396</v>
       </c>
       <c r="K26" t="n">
-        <v>742.873882838222</v>
+        <v>575.4682338178688</v>
       </c>
       <c r="L26" t="n">
-        <v>1353.245936999034</v>
+        <v>1185.84028797868</v>
       </c>
       <c r="M26" t="n">
-        <v>2049.008998830003</v>
+        <v>1881.603349809649</v>
       </c>
       <c r="N26" t="n">
-        <v>2741.398236853471</v>
+        <v>2573.992587833117</v>
       </c>
       <c r="O26" t="n">
-        <v>3091.631408911594</v>
+        <v>3182.608473620793</v>
       </c>
       <c r="P26" t="n">
-        <v>3573.396603697675</v>
+        <v>3363.204762944369</v>
       </c>
       <c r="Q26" t="n">
-        <v>3647.768600862778</v>
+        <v>3647.768600862777</v>
       </c>
       <c r="R26" t="n">
-        <v>3670.680235061858</v>
+        <v>3670.680235061857</v>
       </c>
       <c r="S26" t="n">
         <v>3603.733014173526</v>
@@ -6257,19 +6257,19 @@
         <v>3471.34975621176</v>
       </c>
       <c r="U26" t="n">
-        <v>3298.475358128931</v>
+        <v>3298.47535812893</v>
       </c>
       <c r="V26" t="n">
-        <v>3048.200004255722</v>
+        <v>3048.20000425572</v>
       </c>
       <c r="W26" t="n">
-        <v>2776.218882455968</v>
+        <v>2776.218882455967</v>
       </c>
       <c r="X26" t="n">
-        <v>2483.540657665249</v>
+        <v>2483.540657665248</v>
       </c>
       <c r="Y26" t="n">
-        <v>2174.188859159798</v>
+        <v>2174.188859159797</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>112.4629393425725</v>
       </c>
       <c r="I27" t="n">
-        <v>73.41360470123716</v>
+        <v>73.41360470123713</v>
       </c>
       <c r="J27" t="n">
-        <v>85.68044859922871</v>
+        <v>210.5105735862334</v>
       </c>
       <c r="K27" t="n">
-        <v>184.8012633799704</v>
+        <v>571.4519730094278</v>
       </c>
       <c r="L27" t="n">
-        <v>731.5359141265551</v>
+        <v>1118.186623756013</v>
       </c>
       <c r="M27" t="n">
-        <v>1116.470894310865</v>
+        <v>1457.688885182918</v>
       </c>
       <c r="N27" t="n">
-        <v>1840.432734469936</v>
+        <v>1707.10177474187</v>
       </c>
       <c r="O27" t="n">
-        <v>2436.300702538539</v>
+        <v>1913.046046726511</v>
       </c>
       <c r="P27" t="n">
-        <v>2582.256070930674</v>
+        <v>2374.279556072184</v>
       </c>
       <c r="Q27" t="n">
         <v>2629.904173006605</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.4586865960915</v>
+        <v>562.458686596092</v>
       </c>
       <c r="C28" t="n">
-        <v>474.3100371385454</v>
+        <v>474.3100371385459</v>
       </c>
       <c r="D28" t="n">
-        <v>404.9809311965705</v>
+        <v>404.9809311965709</v>
       </c>
       <c r="E28" t="n">
-        <v>337.8553710845381</v>
+        <v>337.8553710845385</v>
       </c>
       <c r="F28" t="n">
-        <v>271.7529570569885</v>
+        <v>271.752957056989</v>
       </c>
       <c r="G28" t="n">
-        <v>184.1005775281935</v>
+        <v>184.100577528194</v>
       </c>
       <c r="H28" t="n">
-        <v>112.1176451832356</v>
+        <v>112.1176451832358</v>
       </c>
       <c r="I28" t="n">
-        <v>73.41360470123716</v>
+        <v>73.41360470123713</v>
       </c>
       <c r="J28" t="n">
-        <v>146.6418139322272</v>
+        <v>146.6418139322271</v>
       </c>
       <c r="K28" t="n">
-        <v>345.8781191575663</v>
+        <v>345.8781191575662</v>
       </c>
       <c r="L28" t="n">
-        <v>634.2153292268919</v>
+        <v>634.2153292268918</v>
       </c>
       <c r="M28" t="n">
-        <v>944.3114118605725</v>
+        <v>944.3114118605723</v>
       </c>
       <c r="N28" t="n">
         <v>1254.35143930197</v>
@@ -6403,31 +6403,31 @@
         <v>1755.16706539186</v>
       </c>
       <c r="Q28" t="n">
-        <v>1851.465357724014</v>
+        <v>1851.465357724015</v>
       </c>
       <c r="R28" t="n">
         <v>1809.280799904773</v>
       </c>
       <c r="S28" t="n">
-        <v>1685.537218213616</v>
+        <v>1685.537218213617</v>
       </c>
       <c r="T28" t="n">
         <v>1541.408809928766</v>
       </c>
       <c r="U28" t="n">
-        <v>1333.053272358922</v>
+        <v>1333.053272358923</v>
       </c>
       <c r="V28" t="n">
-        <v>1159.156317623396</v>
+        <v>1159.156317623397</v>
       </c>
       <c r="W28" t="n">
-        <v>950.5266810567962</v>
+        <v>950.5266810567969</v>
       </c>
       <c r="X28" t="n">
-        <v>803.3246636291395</v>
+        <v>803.3246636291403</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.3196179559704</v>
+        <v>663.3196179559709</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>1868.376552566036</v>
       </c>
       <c r="C29" t="n">
-        <v>1580.201569095985</v>
+        <v>1580.201569095986</v>
       </c>
       <c r="D29" t="n">
-        <v>1302.723403959595</v>
+        <v>1302.723403959596</v>
       </c>
       <c r="E29" t="n">
-        <v>997.7226848317116</v>
+        <v>997.7226848317124</v>
       </c>
       <c r="F29" t="n">
-        <v>667.5243135124649</v>
+        <v>667.5243135124656</v>
       </c>
       <c r="G29" t="n">
-        <v>331.5962114899931</v>
+        <v>331.5962114899935</v>
       </c>
       <c r="H29" t="n">
-        <v>97.97187272807584</v>
+        <v>97.97187272807567</v>
       </c>
       <c r="I29" t="n">
-        <v>73.41360470123716</v>
+        <v>73.41360470123713</v>
       </c>
       <c r="J29" t="n">
         <v>293.0104028151927</v>
       </c>
       <c r="K29" t="n">
-        <v>651.2915078054828</v>
+        <v>742.873882838222</v>
       </c>
       <c r="L29" t="n">
-        <v>1261.663561966294</v>
+        <v>1353.245936999034</v>
       </c>
       <c r="M29" t="n">
-        <v>1957.426623797263</v>
+        <v>2049.008998830003</v>
       </c>
       <c r="N29" t="n">
-        <v>2649.815861820731</v>
+        <v>2483.015523123917</v>
       </c>
       <c r="O29" t="n">
-        <v>2881.439568158289</v>
+        <v>3091.631408911593</v>
       </c>
       <c r="P29" t="n">
-        <v>3363.20476294437</v>
+        <v>3573.396603697674</v>
       </c>
       <c r="Q29" t="n">
-        <v>3647.768600862778</v>
+        <v>3647.768600862777</v>
       </c>
       <c r="R29" t="n">
-        <v>3670.680235061858</v>
+        <v>3670.680235061856</v>
       </c>
       <c r="S29" t="n">
         <v>3603.733014173526</v>
@@ -6506,7 +6506,7 @@
         <v>2483.540657665249</v>
       </c>
       <c r="Y29" t="n">
-        <v>2174.188859159797</v>
+        <v>2174.188859159798</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>112.4629393425725</v>
       </c>
       <c r="I30" t="n">
-        <v>73.41360470123716</v>
+        <v>73.41360470123713</v>
       </c>
       <c r="J30" t="n">
-        <v>85.68044859922868</v>
+        <v>210.5105735862334</v>
       </c>
       <c r="K30" t="n">
-        <v>184.8012633799702</v>
+        <v>571.4519730094278</v>
       </c>
       <c r="L30" t="n">
-        <v>364.4039722761303</v>
+        <v>1118.186623756013</v>
       </c>
       <c r="M30" t="n">
-        <v>1054.396743530217</v>
+        <v>1457.688885182918</v>
       </c>
       <c r="N30" t="n">
-        <v>1778.358583689287</v>
+        <v>1707.10177474187</v>
       </c>
       <c r="O30" t="n">
-        <v>1984.302855673928</v>
+        <v>1913.046046726511</v>
       </c>
       <c r="P30" t="n">
-        <v>2445.536365019601</v>
+        <v>2374.279556072184</v>
       </c>
       <c r="Q30" t="n">
         <v>2629.904173006605</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.4586865960897</v>
+        <v>562.4586865960916</v>
       </c>
       <c r="C31" t="n">
-        <v>474.3100371385434</v>
+        <v>474.3100371385455</v>
       </c>
       <c r="D31" t="n">
-        <v>404.9809311965683</v>
+        <v>404.9809311965705</v>
       </c>
       <c r="E31" t="n">
-        <v>337.8553710845359</v>
+        <v>337.8553710845382</v>
       </c>
       <c r="F31" t="n">
-        <v>271.7529570569861</v>
+        <v>271.7529570569886</v>
       </c>
       <c r="G31" t="n">
-        <v>184.100577528191</v>
+        <v>184.1005775281936</v>
       </c>
       <c r="H31" t="n">
-        <v>112.117645183236</v>
+        <v>112.1176451832353</v>
       </c>
       <c r="I31" t="n">
-        <v>73.41360470123716</v>
+        <v>73.41360470123713</v>
       </c>
       <c r="J31" t="n">
-        <v>146.6418139322271</v>
+        <v>146.6418139322273</v>
       </c>
       <c r="K31" t="n">
-        <v>345.8781191575658</v>
+        <v>345.8781191575663</v>
       </c>
       <c r="L31" t="n">
-        <v>634.2153292268913</v>
+        <v>634.2153292268918</v>
       </c>
       <c r="M31" t="n">
-        <v>944.3114118605718</v>
+        <v>944.3114118605724</v>
       </c>
       <c r="N31" t="n">
         <v>1254.35143930197</v>
       </c>
       <c r="O31" t="n">
-        <v>1530.751734339138</v>
+        <v>1530.751734339139</v>
       </c>
       <c r="P31" t="n">
-        <v>1755.167065391859</v>
+        <v>1755.16706539186</v>
       </c>
       <c r="Q31" t="n">
-        <v>1851.465357724013</v>
+        <v>1851.465357724014</v>
       </c>
       <c r="R31" t="n">
-        <v>1809.280799904772</v>
+        <v>1809.280799904773</v>
       </c>
       <c r="S31" t="n">
-        <v>1685.537218213615</v>
+        <v>1685.537218213616</v>
       </c>
       <c r="T31" t="n">
-        <v>1541.408809928765</v>
+        <v>1541.408809928766</v>
       </c>
       <c r="U31" t="n">
-        <v>1333.053272358921</v>
+        <v>1333.053272358923</v>
       </c>
       <c r="V31" t="n">
-        <v>1159.156317623395</v>
+        <v>1159.156317623396</v>
       </c>
       <c r="W31" t="n">
-        <v>950.5266810567949</v>
+        <v>950.5266810567964</v>
       </c>
       <c r="X31" t="n">
-        <v>803.3246636291383</v>
+        <v>803.3246636291399</v>
       </c>
       <c r="Y31" t="n">
-        <v>663.3196179559687</v>
+        <v>663.3196179559706</v>
       </c>
     </row>
     <row r="32">
@@ -6683,16 +6683,16 @@
         <v>1302.723403959595</v>
       </c>
       <c r="E32" t="n">
-        <v>997.7226848317115</v>
+        <v>997.7226848317118</v>
       </c>
       <c r="F32" t="n">
-        <v>667.5243135124647</v>
+        <v>667.5243135124651</v>
       </c>
       <c r="G32" t="n">
-        <v>331.5962114899926</v>
+        <v>331.596211489993</v>
       </c>
       <c r="H32" t="n">
-        <v>97.97187272807568</v>
+        <v>97.97187272807567</v>
       </c>
       <c r="I32" t="n">
         <v>73.41360470123713</v>
@@ -6701,40 +6701,40 @@
         <v>293.0104028151927</v>
       </c>
       <c r="K32" t="n">
-        <v>742.873882838222</v>
+        <v>421.9699243927689</v>
       </c>
       <c r="L32" t="n">
-        <v>1261.663561966293</v>
+        <v>1032.34197855358</v>
       </c>
       <c r="M32" t="n">
-        <v>1957.426623797262</v>
+        <v>1728.10504038455</v>
       </c>
       <c r="N32" t="n">
-        <v>2649.81586182073</v>
+        <v>2420.494278408017</v>
       </c>
       <c r="O32" t="n">
-        <v>2881.439568158288</v>
+        <v>3029.110164195693</v>
       </c>
       <c r="P32" t="n">
-        <v>3363.204762944369</v>
+        <v>3386.116397143448</v>
       </c>
       <c r="Q32" t="n">
-        <v>3647.768600862777</v>
+        <v>3670.680235061856</v>
       </c>
       <c r="R32" t="n">
-        <v>3670.680235061857</v>
+        <v>3670.680235061856</v>
       </c>
       <c r="S32" t="n">
         <v>3603.733014173525</v>
       </c>
       <c r="T32" t="n">
-        <v>3471.349756211759</v>
+        <v>3471.34975621176</v>
       </c>
       <c r="U32" t="n">
-        <v>3298.47535812893</v>
+        <v>3298.475358128931</v>
       </c>
       <c r="V32" t="n">
-        <v>3048.20000425572</v>
+        <v>3048.200004255721</v>
       </c>
       <c r="W32" t="n">
         <v>2776.218882455967</v>
@@ -6780,22 +6780,22 @@
         <v>210.5105735862334</v>
       </c>
       <c r="K33" t="n">
-        <v>406.1462238071996</v>
+        <v>571.4519730094278</v>
       </c>
       <c r="L33" t="n">
-        <v>585.7489327033597</v>
+        <v>1118.186623756013</v>
       </c>
       <c r="M33" t="n">
-        <v>1275.741703957446</v>
+        <v>1347.131381897599</v>
       </c>
       <c r="N33" t="n">
-        <v>1525.154593516398</v>
+        <v>1596.544271456551</v>
       </c>
       <c r="O33" t="n">
-        <v>2121.022561585001</v>
+        <v>1913.046046726511</v>
       </c>
       <c r="P33" t="n">
-        <v>2582.256070930674</v>
+        <v>2374.279556072184</v>
       </c>
       <c r="Q33" t="n">
         <v>2629.904173006605</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.4586865960919</v>
+        <v>562.4586865960921</v>
       </c>
       <c r="C34" t="n">
-        <v>474.3100371385457</v>
+        <v>474.3100371385459</v>
       </c>
       <c r="D34" t="n">
-        <v>404.9809311965708</v>
+        <v>404.980931196571</v>
       </c>
       <c r="E34" t="n">
-        <v>337.8553710845384</v>
+        <v>337.8553710845387</v>
       </c>
       <c r="F34" t="n">
-        <v>271.7529570569889</v>
+        <v>271.7529570569891</v>
       </c>
       <c r="G34" t="n">
-        <v>184.1005775281938</v>
+        <v>184.1005775281942</v>
       </c>
       <c r="H34" t="n">
-        <v>112.1176451832354</v>
+        <v>112.1176451832358</v>
       </c>
       <c r="I34" t="n">
         <v>73.41360470123713</v>
@@ -6865,7 +6865,7 @@
         <v>634.2153292268918</v>
       </c>
       <c r="M34" t="n">
-        <v>944.3114118605724</v>
+        <v>944.3114118605723</v>
       </c>
       <c r="N34" t="n">
         <v>1254.35143930197</v>
@@ -6877,7 +6877,7 @@
         <v>1755.16706539186</v>
       </c>
       <c r="Q34" t="n">
-        <v>1851.465357724014</v>
+        <v>1851.465357724015</v>
       </c>
       <c r="R34" t="n">
         <v>1809.280799904773</v>
@@ -6892,16 +6892,16 @@
         <v>1333.053272358923</v>
       </c>
       <c r="V34" t="n">
-        <v>1159.156317623396</v>
+        <v>1159.156317623397</v>
       </c>
       <c r="W34" t="n">
-        <v>950.5266810567966</v>
+        <v>950.5266810567969</v>
       </c>
       <c r="X34" t="n">
-        <v>803.3246636291401</v>
+        <v>803.3246636291403</v>
       </c>
       <c r="Y34" t="n">
-        <v>663.3196179559708</v>
+        <v>663.319617955971</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>1688.950839227093</v>
       </c>
       <c r="C35" t="n">
-        <v>1425.334123783881</v>
+        <v>1425.33412378388</v>
       </c>
       <c r="D35" t="n">
         <v>1172.414226674329</v>
@@ -6935,22 +6935,22 @@
         <v>65.89576755016411</v>
       </c>
       <c r="J35" t="n">
-        <v>118.0869166437666</v>
+        <v>261.9324068328268</v>
       </c>
       <c r="K35" t="n">
-        <v>567.9503966667959</v>
+        <v>711.7958868558561</v>
       </c>
       <c r="L35" t="n">
-        <v>1178.322450827608</v>
+        <v>908.6833386117218</v>
       </c>
       <c r="M35" t="n">
-        <v>1874.085512658577</v>
+        <v>1604.446400442691</v>
       </c>
       <c r="N35" t="n">
-        <v>2566.474750682044</v>
+        <v>2296.835638466158</v>
       </c>
       <c r="O35" t="n">
-        <v>2847.040065893485</v>
+        <v>2528.459344803717</v>
       </c>
       <c r="P35" t="n">
         <v>3010.224539589797</v>
@@ -6965,7 +6965,7 @@
         <v>3252.399424646712</v>
       </c>
       <c r="T35" t="n">
-        <v>3144.574434711785</v>
+        <v>3144.574434711786</v>
       </c>
       <c r="U35" t="n">
         <v>2996.258304655795</v>
@@ -7014,22 +7014,22 @@
         <v>65.89576755016411</v>
       </c>
       <c r="J36" t="n">
-        <v>78.16261144815563</v>
+        <v>202.9927364351604</v>
       </c>
       <c r="K36" t="n">
-        <v>439.10401087135</v>
+        <v>563.9341358583547</v>
       </c>
       <c r="L36" t="n">
-        <v>985.8386616179348</v>
+        <v>1110.668786604939</v>
       </c>
       <c r="M36" t="n">
-        <v>1214.783419759521</v>
+        <v>1339.613544746526</v>
       </c>
       <c r="N36" t="n">
-        <v>1938.745259918592</v>
+        <v>1589.026434305478</v>
       </c>
       <c r="O36" t="n">
-        <v>2144.689531903232</v>
+        <v>1905.528209575438</v>
       </c>
       <c r="P36" t="n">
         <v>2366.761718921111</v>
@@ -7096,22 +7096,22 @@
         <v>65.89576755016411</v>
       </c>
       <c r="K37" t="n">
-        <v>289.2016312686076</v>
+        <v>185.9522112212026</v>
       </c>
       <c r="L37" t="n">
-        <v>601.6083998310377</v>
+        <v>395.1095597362276</v>
       </c>
       <c r="M37" t="n">
-        <v>832.5246209104178</v>
+        <v>729.2752008630127</v>
       </c>
       <c r="N37" t="n">
-        <v>1063.384786797515</v>
+        <v>960.1353667501101</v>
       </c>
       <c r="O37" t="n">
         <v>1260.605220280383</v>
       </c>
       <c r="P37" t="n">
-        <v>1405.840689778804</v>
+        <v>1433.896801365671</v>
       </c>
       <c r="Q37" t="n">
         <v>1451.015232143525</v>
@@ -7151,58 +7151,58 @@
         <v>1688.950839227093</v>
       </c>
       <c r="C38" t="n">
-        <v>1425.334123783881</v>
+        <v>1425.33412378388</v>
       </c>
       <c r="D38" t="n">
-        <v>1172.41422667433</v>
+        <v>1172.414226674329</v>
       </c>
       <c r="E38" t="n">
-        <v>891.971775573285</v>
+        <v>891.9717755732845</v>
       </c>
       <c r="F38" t="n">
-        <v>586.3316722808768</v>
+        <v>586.3316722808763</v>
       </c>
       <c r="G38" t="n">
-        <v>274.9618382852432</v>
+        <v>274.9618382852429</v>
       </c>
       <c r="H38" t="n">
-        <v>65.89576755016409</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="I38" t="n">
-        <v>65.89576755016409</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="J38" t="n">
         <v>285.4925656641196</v>
       </c>
       <c r="K38" t="n">
-        <v>414.4520872416958</v>
+        <v>735.3560456871489</v>
       </c>
       <c r="L38" t="n">
-        <v>941.752980130388</v>
+        <v>1345.72809984796</v>
       </c>
       <c r="M38" t="n">
-        <v>1637.516041961357</v>
+        <v>1637.516041961358</v>
       </c>
       <c r="N38" t="n">
-        <v>1896.93182481696</v>
+        <v>1896.931824816961</v>
       </c>
       <c r="O38" t="n">
-        <v>2505.547710604636</v>
+        <v>2505.547710604637</v>
       </c>
       <c r="P38" t="n">
-        <v>2987.312905390716</v>
+        <v>2987.312905390717</v>
       </c>
       <c r="Q38" t="n">
-        <v>3271.876743309125</v>
+        <v>3271.876743309126</v>
       </c>
       <c r="R38" t="n">
         <v>3294.788377508205</v>
       </c>
       <c r="S38" t="n">
-        <v>3252.399424646711</v>
+        <v>3252.399424646712</v>
       </c>
       <c r="T38" t="n">
-        <v>3144.574434711785</v>
+        <v>3144.574434711786</v>
       </c>
       <c r="U38" t="n">
         <v>2996.258304655795</v>
@@ -7217,7 +7217,7 @@
         <v>2254.998408272628</v>
       </c>
       <c r="Y38" t="n">
-        <v>1970.204877794016</v>
+        <v>1970.204877794015</v>
       </c>
     </row>
     <row r="39">
@@ -7239,16 +7239,16 @@
         <v>487.7148803287298</v>
       </c>
       <c r="F39" t="n">
-        <v>341.1803223556147</v>
+        <v>341.1803223556148</v>
       </c>
       <c r="G39" t="n">
-        <v>203.9380405237518</v>
+        <v>203.9380405237519</v>
       </c>
       <c r="H39" t="n">
         <v>104.9451021914994</v>
       </c>
       <c r="I39" t="n">
-        <v>65.89576755016409</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="J39" t="n">
         <v>202.9927364351604</v>
@@ -7263,13 +7263,13 @@
         <v>1339.613544746526</v>
       </c>
       <c r="N39" t="n">
-        <v>1832.914897318863</v>
+        <v>1589.026434305478</v>
       </c>
       <c r="O39" t="n">
-        <v>2428.782865387466</v>
+        <v>1905.528209575438</v>
       </c>
       <c r="P39" t="n">
-        <v>2574.738233779602</v>
+        <v>2366.761718921111</v>
       </c>
       <c r="Q39" t="n">
         <v>2622.386335855532</v>
@@ -7324,28 +7324,28 @@
         <v>127.4662043234441</v>
       </c>
       <c r="H40" t="n">
-        <v>80.04154000532422</v>
+        <v>80.04154000532424</v>
       </c>
       <c r="I40" t="n">
-        <v>65.89576755016409</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="J40" t="n">
-        <v>65.89576755016409</v>
+        <v>93.9518791370316</v>
       </c>
       <c r="K40" t="n">
-        <v>185.9522112212026</v>
+        <v>214.0083228080701</v>
       </c>
       <c r="L40" t="n">
-        <v>395.1095597362275</v>
+        <v>526.4150913705001</v>
       </c>
       <c r="M40" t="n">
-        <v>654.0818924024752</v>
+        <v>860.5807324972852</v>
       </c>
       <c r="N40" t="n">
-        <v>884.9420582895725</v>
+        <v>1091.440898384383</v>
       </c>
       <c r="O40" t="n">
-        <v>1185.411911819846</v>
+        <v>1288.661331867251</v>
       </c>
       <c r="P40" t="n">
         <v>1433.896801365671</v>
@@ -7397,7 +7397,7 @@
         <v>891.971775573285</v>
       </c>
       <c r="F41" t="n">
-        <v>586.3316722808768</v>
+        <v>586.331672280877</v>
       </c>
       <c r="G41" t="n">
         <v>274.9618382852429</v>
@@ -7409,28 +7409,28 @@
         <v>65.89576755016409</v>
       </c>
       <c r="J41" t="n">
-        <v>144.1168913185686</v>
+        <v>118.0869166437666</v>
       </c>
       <c r="K41" t="n">
-        <v>593.9803713415979</v>
+        <v>567.9503966667959</v>
       </c>
       <c r="L41" t="n">
-        <v>1204.352425502409</v>
+        <v>1178.322450827608</v>
       </c>
       <c r="M41" t="n">
-        <v>1900.115487333378</v>
+        <v>1429.067114500672</v>
       </c>
       <c r="N41" t="n">
-        <v>2592.504725356846</v>
+        <v>2121.45635252414</v>
       </c>
       <c r="O41" t="n">
-        <v>2824.128431694404</v>
+        <v>2730.072238311816</v>
       </c>
       <c r="P41" t="n">
-        <v>2987.312905390717</v>
+        <v>3211.837433097897</v>
       </c>
       <c r="Q41" t="n">
-        <v>3271.876743309125</v>
+        <v>3294.788377508205</v>
       </c>
       <c r="R41" t="n">
         <v>3294.788377508205</v>
@@ -7497,16 +7497,16 @@
         <v>1110.668786604939</v>
       </c>
       <c r="M42" t="n">
-        <v>1339.613544746526</v>
+        <v>1450.171048031845</v>
       </c>
       <c r="N42" t="n">
-        <v>1589.026434305478</v>
+        <v>1699.583937590797</v>
       </c>
       <c r="O42" t="n">
-        <v>2113.504724433928</v>
+        <v>1905.528209575438</v>
       </c>
       <c r="P42" t="n">
-        <v>2574.738233779602</v>
+        <v>2366.761718921111</v>
       </c>
       <c r="Q42" t="n">
         <v>2622.386335855532</v>
@@ -7567,25 +7567,25 @@
         <v>65.89576755016409</v>
       </c>
       <c r="J43" t="n">
-        <v>93.95187913703069</v>
+        <v>65.89576755016409</v>
       </c>
       <c r="K43" t="n">
-        <v>317.2577428554742</v>
+        <v>185.9522112212026</v>
       </c>
       <c r="L43" t="n">
-        <v>526.4150913704992</v>
+        <v>423.165671323094</v>
       </c>
       <c r="M43" t="n">
-        <v>757.3313124498793</v>
+        <v>654.0818924024741</v>
       </c>
       <c r="N43" t="n">
-        <v>988.1914783369766</v>
+        <v>988.1914783369765</v>
       </c>
       <c r="O43" t="n">
-        <v>1185.411911819845</v>
+        <v>1288.66133186725</v>
       </c>
       <c r="P43" t="n">
-        <v>1330.647381318265</v>
+        <v>1433.89680136567</v>
       </c>
       <c r="Q43" t="n">
         <v>1451.015232143524</v>
@@ -7631,10 +7631,10 @@
         <v>1172.414226674328</v>
       </c>
       <c r="E44" t="n">
-        <v>891.9717755732836</v>
+        <v>891.971775573284</v>
       </c>
       <c r="F44" t="n">
-        <v>586.3316722808761</v>
+        <v>586.3316722808763</v>
       </c>
       <c r="G44" t="n">
         <v>274.9618382852429</v>
@@ -7652,16 +7652,16 @@
         <v>735.3560456871489</v>
       </c>
       <c r="L44" t="n">
-        <v>1204.352425502409</v>
+        <v>1345.72809984796</v>
       </c>
       <c r="M44" t="n">
-        <v>1900.115487333378</v>
+        <v>1637.516041961357</v>
       </c>
       <c r="N44" t="n">
-        <v>2592.504725356846</v>
+        <v>1896.93182481696</v>
       </c>
       <c r="O44" t="n">
-        <v>2824.128431694404</v>
+        <v>2505.547710604636</v>
       </c>
       <c r="P44" t="n">
         <v>2987.312905390717</v>
@@ -7676,7 +7676,7 @@
         <v>3252.399424646712</v>
       </c>
       <c r="T44" t="n">
-        <v>3144.574434711785</v>
+        <v>3144.574434711786</v>
       </c>
       <c r="U44" t="n">
         <v>2996.258304655794</v>
@@ -7725,25 +7725,25 @@
         <v>65.89576755016409</v>
       </c>
       <c r="J45" t="n">
-        <v>78.16261144815562</v>
+        <v>202.9927364351604</v>
       </c>
       <c r="K45" t="n">
-        <v>177.2834262288972</v>
+        <v>563.9341358583547</v>
       </c>
       <c r="L45" t="n">
-        <v>724.0180769754819</v>
+        <v>1110.668786604939</v>
       </c>
       <c r="M45" t="n">
-        <v>1414.010848229568</v>
+        <v>1339.613544746526</v>
       </c>
       <c r="N45" t="n">
-        <v>2137.972688388638</v>
+        <v>1589.026434305478</v>
       </c>
       <c r="O45" t="n">
-        <v>2428.782865387466</v>
+        <v>1905.528209575438</v>
       </c>
       <c r="P45" t="n">
-        <v>2574.738233779602</v>
+        <v>2366.761718921111</v>
       </c>
       <c r="Q45" t="n">
         <v>2622.386335855532</v>
@@ -7804,22 +7804,22 @@
         <v>65.89576755016409</v>
       </c>
       <c r="J46" t="n">
-        <v>93.9518791370312</v>
+        <v>65.89576755016409</v>
       </c>
       <c r="K46" t="n">
-        <v>214.0083228080697</v>
+        <v>289.2016312686076</v>
       </c>
       <c r="L46" t="n">
-        <v>423.1656713230947</v>
+        <v>498.3589797836326</v>
       </c>
       <c r="M46" t="n">
-        <v>654.0818924024748</v>
+        <v>832.5246209104178</v>
       </c>
       <c r="N46" t="n">
-        <v>988.1914783369771</v>
+        <v>1063.384786797515</v>
       </c>
       <c r="O46" t="n">
-        <v>1185.411911819845</v>
+        <v>1260.605220280383</v>
       </c>
       <c r="P46" t="n">
         <v>1433.896801365671</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>249.5440594456147</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>186.3841290418395</v>
       </c>
       <c r="O11" t="n">
-        <v>131.7863356460155</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>48.99271572527233</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542716</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>29.40447162525175</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>258.6919938594398</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>300.9906082978675</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>4.544507975426512</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,13 +8933,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>398.8885232487889</v>
       </c>
       <c r="N14" t="n">
-        <v>390.1298170038006</v>
+        <v>390.1298170038009</v>
       </c>
       <c r="O14" t="n">
-        <v>211.1933512045855</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542716</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>185.9830208644929</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>111.6742457427467</v>
       </c>
       <c r="N15" t="n">
-        <v>400.2337496266803</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>35.73939383238607</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9173,19 +9173,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>390.1298170038007</v>
+        <v>390.129817003801</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>117.8839317712053</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542716</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,16 +9249,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>29.9032647560025</v>
+        <v>111.6742457427467</v>
       </c>
       <c r="N18" t="n">
-        <v>400.2337496266803</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>398.8885232487889</v>
       </c>
       <c r="N20" t="n">
-        <v>390.1298170038006</v>
+        <v>390.129817003801</v>
       </c>
       <c r="O20" t="n">
-        <v>92.39416252396651</v>
+        <v>4.544507975426768</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542716</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,22 +9477,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>420.9086298462416</v>
+        <v>111.6742457427467</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>81.32188824949139</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>4.544507975426086</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>398.8885232487887</v>
       </c>
       <c r="N23" t="n">
-        <v>104.0705026647043</v>
+        <v>390.1298170038007</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542716</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,22 +9717,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>215.999625348548</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>420.9086298462416</v>
+        <v>420.9086298462418</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>268.3772020120705</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9887,13 +9887,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>119.8075411318841</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>17.58769255279105</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>157.565880851236</v>
+        <v>111.6742457427461</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>231.6379630431453</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10121,16 +10121,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>176.3542842811221</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,19 +10188,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>111.6742457427461</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>138.1007130414878</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,10 +10349,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>325.15376502243</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,16 +10361,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>195.7795547994365</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542716</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>97.48973276790369</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>111.6742457427461</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>145.2984749384447</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10598,10 +10598,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>49.43596855947689</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,13 +10674,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>111.6742457427463</v>
       </c>
       <c r="P36" t="n">
-        <v>76.88567537953855</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>333.7509506392186</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>41.45785701043692</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10911,16 +10911,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>246.3519828418031</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>111.6742457427463</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>26.29290371192124</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,22 +11066,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>8.665603277985184</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542716</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>111.6742457427463</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>321.7515334785954</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,19 +11300,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>274.8575030902978</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>41.45785701043602</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>85.72313637796685</v>
+        <v>111.6742457427463</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>206.5788823818073</v>
+        <v>305.3102796803863</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>304.5068080891675</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>335.1249171548103</v>
+        <v>335.1249171548102</v>
       </c>
       <c r="H11" t="n">
-        <v>233.8441915268611</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>26.86878149913302</v>
+        <v>26.86878149913298</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.83384483201118</v>
+        <v>68.83384483201114</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>173.7017502545638</v>
+        <v>173.7017502545637</v>
       </c>
       <c r="V11" t="n">
-        <v>250.3286964870406</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>271.8174067343188</v>
+        <v>43.93771268751523</v>
       </c>
       <c r="X11" t="n">
-        <v>292.3075386953748</v>
+        <v>292.3075386953747</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>308.8143766729593</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>60.93937715401795</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>60.93937715402139</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>287.8493297879132</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5068080891674</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>329.4524837586171</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>110.7566786102811</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>68.83384483201114</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>271.8174067343186</v>
+        <v>271.8174067343187</v>
       </c>
       <c r="X14" t="n">
-        <v>162.9330451410383</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>60.93937715401891</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>20.06628092427897</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>40.87309622974151</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>3.623767952376511e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1249611.001353657</v>
+        <v>1249611.001353656</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1388061.94639695</v>
+        <v>1388061.946396951</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1388061.94639695</v>
+        <v>1388061.946396951</v>
       </c>
     </row>
     <row r="9">
@@ -26317,31 +26317,31 @@
         <v>122891.4508075557</v>
       </c>
       <c r="D2" t="n">
-        <v>122891.4508075557</v>
+        <v>122891.4508075558</v>
       </c>
       <c r="E2" t="n">
         <v>100735.5759676709</v>
       </c>
       <c r="F2" t="n">
-        <v>110176.4893818338</v>
+        <v>110176.4893818337</v>
       </c>
       <c r="G2" t="n">
         <v>123156.2654796426</v>
       </c>
       <c r="H2" t="n">
+        <v>123156.2654796425</v>
+      </c>
+      <c r="I2" t="n">
         <v>123156.2654796426</v>
-      </c>
-      <c r="I2" t="n">
-        <v>123156.2654796425</v>
       </c>
       <c r="J2" t="n">
         <v>123156.2654796424</v>
       </c>
       <c r="K2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796423</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796424</v>
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>746256.1644166387</v>
+        <v>746256.1644166389</v>
       </c>
       <c r="F3" t="n">
         <v>58378.43698898896</v>
       </c>
       <c r="G3" t="n">
-        <v>59877.36107027672</v>
+        <v>59877.36107027675</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>73573.91951487761</v>
+        <v>73573.91951487762</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>59877.36107027682</v>
+        <v>59877.36107027675</v>
       </c>
       <c r="M3" t="n">
         <v>107779.8354573343</v>
       </c>
       <c r="N3" t="n">
-        <v>49902.82011545919</v>
+        <v>49902.82011545933</v>
       </c>
       <c r="O3" t="n">
-        <v>4106.365438248895</v>
+        <v>4106.365438248997</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,19 +26430,19 @@
         <v>153149.3497879658</v>
       </c>
       <c r="G4" t="n">
-        <v>202349.5883717045</v>
+        <v>202349.5883717046</v>
       </c>
       <c r="H4" t="n">
         <v>202349.5883717046</v>
       </c>
       <c r="I4" t="n">
-        <v>202349.5883717046</v>
+        <v>202349.5883717045</v>
       </c>
       <c r="J4" t="n">
         <v>189330.9659432835</v>
       </c>
       <c r="K4" t="n">
-        <v>189330.9659432833</v>
+        <v>189330.9659432835</v>
       </c>
       <c r="L4" t="n">
         <v>189330.9659432835</v>
@@ -26482,7 +26482,7 @@
         <v>61096.26649466871</v>
       </c>
       <c r="G5" t="n">
-        <v>67388.55382944008</v>
+        <v>67388.55382944009</v>
       </c>
       <c r="H5" t="n">
         <v>67388.55382944009</v>
@@ -26491,19 +26491,19 @@
         <v>67388.55382944009</v>
       </c>
       <c r="J5" t="n">
-        <v>77453.80406787345</v>
+        <v>77453.80406787344</v>
       </c>
       <c r="K5" t="n">
-        <v>77453.80406787344</v>
+        <v>77453.80406787343</v>
       </c>
       <c r="L5" t="n">
-        <v>77453.80406787344</v>
+        <v>77453.80406787343</v>
       </c>
       <c r="M5" t="n">
         <v>73784.19097745874</v>
       </c>
       <c r="N5" t="n">
-        <v>73784.19097745873</v>
+        <v>73784.19097745874</v>
       </c>
       <c r="O5" t="n">
         <v>73784.19097745874</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-341634.6586351201</v>
+        <v>-341639.0722129883</v>
       </c>
       <c r="C6" t="n">
-        <v>-341634.6586351201</v>
+        <v>-341639.0722129882</v>
       </c>
       <c r="D6" t="n">
-        <v>-341634.6586351201</v>
+        <v>-341639.0722129882</v>
       </c>
       <c r="E6" t="n">
-        <v>-826996.6660861117</v>
+        <v>-827370.3442446449</v>
       </c>
       <c r="F6" t="n">
-        <v>-162447.5638897897</v>
+        <v>-162663.8934914199</v>
       </c>
       <c r="G6" t="n">
         <v>-206459.2377917788</v>
@@ -26540,28 +26540,28 @@
         <v>-146581.8767215021</v>
       </c>
       <c r="I6" t="n">
-        <v>-146581.8767215021</v>
+        <v>-146581.876721502</v>
       </c>
       <c r="J6" t="n">
         <v>-217202.4240463921</v>
       </c>
       <c r="K6" t="n">
-        <v>-143628.5045315143</v>
+        <v>-143628.5045315144</v>
       </c>
       <c r="L6" t="n">
-        <v>-203505.8656017913</v>
+        <v>-203505.8656017914</v>
       </c>
       <c r="M6" t="n">
         <v>-252293.3069175447</v>
       </c>
       <c r="N6" t="n">
-        <v>-194416.2915756696</v>
+        <v>-194416.2915756698</v>
       </c>
       <c r="O6" t="n">
-        <v>-148619.8368984593</v>
+        <v>-148619.8368984595</v>
       </c>
       <c r="P6" t="n">
-        <v>-144513.4714602105</v>
+        <v>-144513.4714602104</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="F2" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="G2" t="n">
         <v>152.2702633209403</v>
       </c>
       <c r="H2" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="I2" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="J2" t="n">
         <v>79.97965813565715</v>
       </c>
       <c r="K2" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="L2" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="M2" t="n">
         <v>104.2923434822273</v>
@@ -26759,7 +26759,7 @@
         <v>685.1217713360851</v>
       </c>
       <c r="J3" t="n">
-        <v>685.1217713360852</v>
+        <v>685.1217713360851</v>
       </c>
       <c r="K3" t="n">
         <v>685.1217713360851</v>
@@ -26799,31 +26799,31 @@
         <v>448.4202733404285</v>
       </c>
       <c r="F4" t="n">
-        <v>652.1659613023896</v>
+        <v>652.16596130239</v>
       </c>
       <c r="G4" t="n">
-        <v>652.1659613023896</v>
+        <v>652.16596130239</v>
       </c>
       <c r="H4" t="n">
-        <v>652.1659613023896</v>
+        <v>652.16596130239</v>
       </c>
       <c r="I4" t="n">
-        <v>652.1659613023896</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="J4" t="n">
-        <v>917.6700587654644</v>
+        <v>917.6700587654642</v>
       </c>
       <c r="K4" t="n">
-        <v>917.6700587654644</v>
+        <v>917.6700587654641</v>
       </c>
       <c r="L4" t="n">
-        <v>917.6700587654642</v>
+        <v>917.6700587654641</v>
       </c>
       <c r="M4" t="n">
         <v>823.6970943770514</v>
       </c>
       <c r="N4" t="n">
-        <v>823.6970943770511</v>
+        <v>823.6970943770514</v>
       </c>
       <c r="O4" t="n">
         <v>823.6970943770513</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="F2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.8467013378459</v>
+        <v>74.84670133784594</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.132956797811076</v>
+        <v>5.132956797811204</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.84670133784603</v>
+        <v>74.84670133784594</v>
       </c>
       <c r="M2" t="n">
-        <v>24.31268534657022</v>
+        <v>24.31268534657015</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.132956797811119</v>
+        <v>5.132956797811246</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>448.4202733404285</v>
       </c>
       <c r="F4" t="n">
-        <v>203.7456879619611</v>
+        <v>203.7456879619614</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>265.5040974630748</v>
+        <v>265.5040974630745</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>354.4473089520157</v>
+        <v>354.4473089520158</v>
       </c>
       <c r="N4" t="n">
-        <v>203.7456879619609</v>
+        <v>203.7456879619614</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="K2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.8467013378459</v>
+        <v>74.84670133784594</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.132956797811076</v>
+        <v>5.132956797811204</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>448.4202733404285</v>
       </c>
       <c r="N4" t="n">
-        <v>203.7456879619611</v>
+        <v>203.7456879619614</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="C11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="D11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="E11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="F11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="G11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="H11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="I11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="T11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="U11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="V11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="W11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="X11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="Y11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="C12" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="D12" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="E12" t="n">
-        <v>77.42356198309429</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>77.42356198309429</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>55.22536670000805</v>
       </c>
       <c r="I12" t="n">
-        <v>16.46064601183602</v>
+        <v>38.65884129492198</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="T12" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="U12" t="n">
-        <v>77.42356198309429</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="W12" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="X12" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="C13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="D13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="E13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="F13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="G13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="H13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="I13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="J13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="K13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="L13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="M13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="N13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="O13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="P13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="R13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="S13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="T13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="U13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="V13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="W13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="X13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="Y13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309433</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="C14" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="D14" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="E14" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="F14" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="G14" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="H14" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="I14" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="T14" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="U14" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="V14" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="W14" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="X14" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="Y14" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
     </row>
     <row r="15">
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="C16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="D16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="E16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="F16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="G16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="H16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="I16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="J16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="K16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="L16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="M16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="N16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="O16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="P16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="R16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="S16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="T16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="U16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="V16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="W16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="X16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="Y16" t="n">
-        <v>77.4235619830944</v>
+        <v>77.42356198309433</v>
       </c>
     </row>
     <row r="17">
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.179678742526448e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28725,10 +28725,10 @@
         <v>152.2702633209403</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -28737,10 +28737,10 @@
         <v>152.2702633209403</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.2427611571659</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>91.1870158172716</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,10 +28767,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.7423703767059</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>122.8689169693744</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>152.2702633209403</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="C20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="D20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="E20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="F20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="G20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="H20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="I20" t="n">
         <v>104.2923434822273</v>
@@ -28852,22 +28852,22 @@
         <v>146.2574068151055</v>
       </c>
       <c r="T20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="U20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="V20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="W20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="X20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="Y20" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
     </row>
     <row r="21">
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.179678742526448e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="C22" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.0090389196979</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="H22" t="n">
         <v>151.2427611571659</v>
       </c>
       <c r="I22" t="n">
-        <v>118.2966582128358</v>
+        <v>90.17410119363366</v>
       </c>
       <c r="J22" t="n">
-        <v>6.011770023546006</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>121.7423703767059</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="W22" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="X22" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="C23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="D23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="E23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="F23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="G23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="H23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="I23" t="n">
         <v>104.2923434822273</v>
@@ -29089,22 +29089,22 @@
         <v>146.2574068151055</v>
       </c>
       <c r="T23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="U23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="V23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="W23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="X23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="Y23" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="C25" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29208,10 +29208,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>130.9969215997467</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="H25" t="n">
-        <v>151.2427611571659</v>
+        <v>129.9694194359729</v>
       </c>
       <c r="I25" t="n">
         <v>118.2966582128358</v>
@@ -29244,25 +29244,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="W25" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="X25" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="Y25" t="n">
-        <v>152.2702633209404</v>
+        <v>152.2702633209403</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="C29" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="D29" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="E29" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="F29" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="G29" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="H29" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="I29" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="T29" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="U29" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="V29" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="W29" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="X29" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="C31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="D31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="E31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="F31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="G31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="H31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="I31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="J31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="K31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="L31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="M31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="N31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="O31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="P31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="R31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="S31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="T31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="U31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="V31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="W31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="X31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.97965813565702</v>
+        <v>79.97965813565716</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="C32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="D32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="E32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="F32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="G32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="H32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="I32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="T32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="U32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="V32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="W32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="X32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="C34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="D34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="E34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="F34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="G34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="H34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="I34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="J34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="K34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="L34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="M34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565708</v>
       </c>
       <c r="N34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="O34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="P34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="R34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="S34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="T34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="U34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="V34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="W34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="X34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565716</v>
       </c>
     </row>
     <row r="35">
@@ -30168,25 +30168,25 @@
         <v>6.011770023546006</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>104.2923434822273</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>104.2923434822273</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>28.33950665340157</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.33950665340155</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>104.2923434822273</v>
@@ -30402,25 +30402,25 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J40" t="n">
-        <v>6.011770023546006</v>
+        <v>34.35127667694751</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="M40" t="n">
-        <v>28.3395066534016</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30478,7 +30478,7 @@
         <v>104.2923434822274</v>
       </c>
       <c r="I41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30639,28 +30639,28 @@
         <v>104.2923434822274</v>
       </c>
       <c r="J43" t="n">
-        <v>34.3512766769466</v>
+        <v>6.011770023546006</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>28.33950665340041</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>104.2923434822274</v>
       </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>104.2923434822274</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>104.2923434822274</v>
@@ -30876,25 +30876,25 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J46" t="n">
-        <v>34.35127667694712</v>
+        <v>6.011770023546006</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>104.2923434822273</v>
+        <v>28.33950665340112</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -32947,22 +32947,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K26" t="n">
-        <v>350.3519940526334</v>
+        <v>350.3519940526333</v>
       </c>
       <c r="L26" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M26" t="n">
-        <v>483.6236712808739</v>
+        <v>483.6236712808737</v>
       </c>
       <c r="N26" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951799</v>
       </c>
       <c r="O26" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565942</v>
       </c>
       <c r="P26" t="n">
-        <v>396.0657974687165</v>
+        <v>396.0657974687164</v>
       </c>
       <c r="Q26" t="n">
         <v>297.4289193341494</v>
@@ -32971,13 +32971,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S26" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113987</v>
       </c>
       <c r="T26" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2203406701784393</v>
+        <v>0.2203406701784392</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.473658149666297</v>
+        <v>1.473658149666296</v>
       </c>
       <c r="H27" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I27" t="n">
-        <v>50.73779155649311</v>
+        <v>50.7377915564931</v>
       </c>
       <c r="J27" t="n">
-        <v>139.2283780787794</v>
+        <v>139.2283780787793</v>
       </c>
       <c r="K27" t="n">
         <v>237.9634741064212</v>
@@ -33032,7 +33032,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M27" t="n">
-        <v>373.3913653781664</v>
+        <v>373.3913653781663</v>
       </c>
       <c r="N27" t="n">
         <v>383.2739237590426</v>
@@ -33041,22 +33041,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P27" t="n">
-        <v>281.4040724568914</v>
+        <v>281.4040724568913</v>
       </c>
       <c r="Q27" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R27" t="n">
-        <v>91.49607353805308</v>
+        <v>91.49607353805307</v>
       </c>
       <c r="S27" t="n">
-        <v>27.37255378875773</v>
+        <v>27.37255378875772</v>
       </c>
       <c r="T27" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225113</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699322</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,13 +33096,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H28" t="n">
-        <v>10.98441135027364</v>
+        <v>10.98441135027363</v>
       </c>
       <c r="I28" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442245</v>
       </c>
       <c r="J28" t="n">
-        <v>87.34741009312678</v>
+        <v>87.34741009312677</v>
       </c>
       <c r="K28" t="n">
         <v>143.5386268471339</v>
@@ -33123,16 +33123,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q28" t="n">
-        <v>103.4533874717489</v>
+        <v>103.4533874717488</v>
       </c>
       <c r="R28" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S28" t="n">
-        <v>21.53079402707008</v>
+        <v>21.53079402707007</v>
       </c>
       <c r="T28" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622293</v>
       </c>
       <c r="U28" t="n">
         <v>0.06738902668879533</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.71833241778029</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K11" t="n">
         <v>130.2621430076528</v>
       </c>
       <c r="L11" t="n">
-        <v>448.4202733404285</v>
+        <v>198.8762138948138</v>
       </c>
       <c r="M11" t="n">
         <v>253.277438053601</v>
       </c>
       <c r="N11" t="n">
-        <v>262.036144298589</v>
+        <v>448.4202733404285</v>
       </c>
       <c r="O11" t="n">
-        <v>365.749675380923</v>
+        <v>233.9633397349075</v>
       </c>
       <c r="P11" t="n">
         <v>164.8328017134469</v>
       </c>
       <c r="Q11" t="n">
-        <v>75.1232294596999</v>
+        <v>124.1159451849722</v>
       </c>
       <c r="R11" t="n">
-        <v>23.14306484755528</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.7952230373644</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K12" t="n">
-        <v>364.5872721446408</v>
+        <v>358.814028991502</v>
       </c>
       <c r="L12" t="n">
         <v>181.416877672889</v>
@@ -35504,10 +35504,10 @@
         <v>208.0245171562028</v>
       </c>
       <c r="P12" t="n">
-        <v>448.4202733404285</v>
+        <v>147.4296650425611</v>
       </c>
       <c r="Q12" t="n">
-        <v>48.1293960362938</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>71.41179195954828</v>
+        <v>71.41179195954832</v>
       </c>
       <c r="K13" t="n">
         <v>198.6926970043453</v>
       </c>
       <c r="L13" t="n">
-        <v>288.69361098817</v>
+        <v>288.6936109881701</v>
       </c>
       <c r="M13" t="n">
-        <v>310.6722701440842</v>
+        <v>310.6722701440843</v>
       </c>
       <c r="N13" t="n">
         <v>310.6156487377381</v>
@@ -35583,10 +35583,10 @@
         <v>276.6361210566988</v>
       </c>
       <c r="P13" t="n">
-        <v>224.126056425943</v>
+        <v>224.1260564259431</v>
       </c>
       <c r="Q13" t="n">
-        <v>94.71490620314874</v>
+        <v>94.71490620314879</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>221.8149475898541</v>
+        <v>57.2628403932068</v>
       </c>
       <c r="K14" t="n">
         <v>130.2621430076528</v>
@@ -35653,13 +35653,13 @@
         <v>616.5374284452643</v>
       </c>
       <c r="M14" t="n">
-        <v>253.277438053601</v>
+        <v>652.16596130239</v>
       </c>
       <c r="N14" t="n">
-        <v>652.1659613023896</v>
+        <v>652.16596130239</v>
       </c>
       <c r="O14" t="n">
-        <v>445.1566909394929</v>
+        <v>233.9633397349075</v>
       </c>
       <c r="P14" t="n">
         <v>164.8328017134469</v>
@@ -35668,7 +35668,7 @@
         <v>75.1232294596999</v>
       </c>
       <c r="R14" t="n">
-        <v>23.14306484755528</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K15" t="n">
-        <v>286.1050559965551</v>
+        <v>364.5872721446408</v>
       </c>
       <c r="L15" t="n">
         <v>552.2572229763482</v>
       </c>
       <c r="M15" t="n">
-        <v>231.257331456148</v>
+        <v>342.9315771988947</v>
       </c>
       <c r="N15" t="n">
-        <v>652.1659613023896</v>
+        <v>251.9322116757093</v>
       </c>
       <c r="O15" t="n">
         <v>208.0245171562028</v>
@@ -35744,7 +35744,7 @@
         <v>465.8924336824982</v>
       </c>
       <c r="Q15" t="n">
-        <v>48.1293960362938</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>71.4117919595484</v>
+        <v>71.41179195954832</v>
       </c>
       <c r="K16" t="n">
-        <v>198.6926970043454</v>
+        <v>198.6926970043453</v>
       </c>
       <c r="L16" t="n">
         <v>288.6936109881701</v>
@@ -35814,16 +35814,16 @@
         <v>310.6722701440843</v>
       </c>
       <c r="N16" t="n">
-        <v>310.6156487377382</v>
+        <v>310.6156487377381</v>
       </c>
       <c r="O16" t="n">
-        <v>276.6361210566989</v>
+        <v>276.6361210566988</v>
       </c>
       <c r="P16" t="n">
         <v>224.1260564259431</v>
       </c>
       <c r="Q16" t="n">
-        <v>94.71490620314886</v>
+        <v>94.71490620314879</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>221.8149475898541</v>
       </c>
       <c r="K17" t="n">
-        <v>166.0015368400388</v>
+        <v>130.2621430076528</v>
       </c>
       <c r="L17" t="n">
         <v>198.8762138948138</v>
@@ -35893,19 +35893,19 @@
         <v>253.277438053601</v>
       </c>
       <c r="N17" t="n">
-        <v>652.1659613023896</v>
+        <v>652.16596130239</v>
       </c>
       <c r="O17" t="n">
-        <v>614.7635209976528</v>
+        <v>351.8472715061128</v>
       </c>
       <c r="P17" t="n">
-        <v>164.8328017134469</v>
+        <v>486.6315098849295</v>
       </c>
       <c r="Q17" t="n">
         <v>287.4382201196046</v>
       </c>
       <c r="R17" t="n">
-        <v>23.14306484755528</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>552.2572229763482</v>
       </c>
       <c r="M18" t="n">
-        <v>261.1605962121505</v>
+        <v>342.9315771988947</v>
       </c>
       <c r="N18" t="n">
-        <v>652.1659613023896</v>
+        <v>251.9322116757093</v>
       </c>
       <c r="O18" t="n">
         <v>208.0245171562028</v>
       </c>
       <c r="P18" t="n">
-        <v>147.4296650425611</v>
+        <v>465.8924336824982</v>
       </c>
       <c r="Q18" t="n">
         <v>258.2066837721429</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>221.8149475898541</v>
+        <v>52.71833241778029</v>
       </c>
       <c r="K20" t="n">
-        <v>454.4075555788175</v>
+        <v>130.2621430076528</v>
       </c>
       <c r="L20" t="n">
-        <v>198.8762138948138</v>
+        <v>616.5374284452643</v>
       </c>
       <c r="M20" t="n">
-        <v>253.277438053601</v>
+        <v>652.16596130239</v>
       </c>
       <c r="N20" t="n">
-        <v>652.1659613023896</v>
+        <v>652.16596130239</v>
       </c>
       <c r="O20" t="n">
-        <v>326.357502258874</v>
+        <v>238.5078477103342</v>
       </c>
       <c r="P20" t="n">
         <v>164.8328017134469</v>
       </c>
       <c r="Q20" t="n">
-        <v>287.4382201196046</v>
+        <v>75.1232294596999</v>
       </c>
       <c r="R20" t="n">
-        <v>23.14306484755528</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>12.39075141211265</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K21" t="n">
-        <v>100.1220351320622</v>
+        <v>364.5872721446408</v>
       </c>
       <c r="L21" t="n">
         <v>552.2572229763482</v>
       </c>
       <c r="M21" t="n">
-        <v>652.1659613023896</v>
+        <v>342.9315771988947</v>
       </c>
       <c r="N21" t="n">
         <v>251.9322116757093</v>
       </c>
       <c r="O21" t="n">
-        <v>289.3464054056942</v>
+        <v>208.0245171562028</v>
       </c>
       <c r="P21" t="n">
         <v>465.8924336824982</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>221.8149475898541</v>
+        <v>52.71833241778029</v>
       </c>
       <c r="K23" t="n">
-        <v>130.2621430076528</v>
+        <v>134.8066509830788</v>
       </c>
       <c r="L23" t="n">
-        <v>198.8762138948138</v>
+        <v>616.5374284452643</v>
       </c>
       <c r="M23" t="n">
-        <v>253.277438053601</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="N23" t="n">
-        <v>366.1066469632933</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="O23" t="n">
-        <v>614.7635209976528</v>
+        <v>233.9633397349075</v>
       </c>
       <c r="P23" t="n">
-        <v>486.6315098849295</v>
+        <v>164.8328017134469</v>
       </c>
       <c r="Q23" t="n">
-        <v>287.4382201196046</v>
+        <v>75.1232294596999</v>
       </c>
       <c r="R23" t="n">
-        <v>23.14306484755528</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>12.39075141211265</v>
       </c>
       <c r="K24" t="n">
-        <v>316.1216604806102</v>
+        <v>100.1220351320622</v>
       </c>
       <c r="L24" t="n">
-        <v>552.2572229763482</v>
+        <v>181.416877672889</v>
       </c>
       <c r="M24" t="n">
-        <v>652.1659613023896</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="N24" t="n">
-        <v>251.9322116757093</v>
+        <v>520.3094136877797</v>
       </c>
       <c r="O24" t="n">
         <v>601.8868364329323</v>
       </c>
       <c r="P24" t="n">
-        <v>147.4296650425611</v>
+        <v>465.8924336824982</v>
       </c>
       <c r="Q24" t="n">
         <v>48.1293960362938</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>221.8149475898541</v>
+        <v>52.71833241778029</v>
       </c>
       <c r="K26" t="n">
-        <v>454.4075555788176</v>
+        <v>454.4075555788175</v>
       </c>
       <c r="L26" t="n">
-        <v>616.5374284452644</v>
+        <v>616.5374284452643</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7909715464336</v>
+        <v>702.7909715464335</v>
       </c>
       <c r="N26" t="n">
-        <v>699.3830687105733</v>
+        <v>699.3830687105732</v>
       </c>
       <c r="O26" t="n">
-        <v>353.7708808667916</v>
+        <v>614.7635209976528</v>
       </c>
       <c r="P26" t="n">
-        <v>486.6315098849296</v>
+        <v>182.4204942662379</v>
       </c>
       <c r="Q26" t="n">
-        <v>75.1232294596999</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R26" t="n">
-        <v>23.14306484755531</v>
+        <v>23.14306484755528</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>12.39075141211268</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K27" t="n">
-        <v>100.1220351320623</v>
+        <v>364.5872721446408</v>
       </c>
       <c r="L27" t="n">
         <v>552.2572229763482</v>
       </c>
       <c r="M27" t="n">
-        <v>388.8232123073841</v>
+        <v>342.931577198894</v>
       </c>
       <c r="N27" t="n">
-        <v>731.2745860192629</v>
+        <v>251.9322116757093</v>
       </c>
       <c r="O27" t="n">
-        <v>601.8868364329323</v>
+        <v>208.0245171562028</v>
       </c>
       <c r="P27" t="n">
-        <v>147.4296650425611</v>
+        <v>465.8924336824982</v>
       </c>
       <c r="Q27" t="n">
-        <v>48.12939603629383</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.96788811211115</v>
+        <v>73.96788811211114</v>
       </c>
       <c r="K28" t="n">
         <v>201.2487931569082</v>
@@ -36759,19 +36759,19 @@
         <v>291.2497071407329</v>
       </c>
       <c r="M28" t="n">
-        <v>313.2283662966472</v>
+        <v>313.2283662966471</v>
       </c>
       <c r="N28" t="n">
         <v>313.1717448903009</v>
       </c>
       <c r="O28" t="n">
-        <v>279.1922172092617</v>
+        <v>279.1922172092616</v>
       </c>
       <c r="P28" t="n">
         <v>226.6821525785059</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.27100235571163</v>
+        <v>97.2710023557116</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>221.8149475898541</v>
       </c>
       <c r="K29" t="n">
-        <v>361.9001060507981</v>
+        <v>454.4075555788175</v>
       </c>
       <c r="L29" t="n">
         <v>616.5374284452643</v>
@@ -36841,16 +36841,16 @@
         <v>702.7909715464335</v>
       </c>
       <c r="N29" t="n">
-        <v>699.3830687105732</v>
+        <v>438.3904285797112</v>
       </c>
       <c r="O29" t="n">
-        <v>233.9633397349075</v>
+        <v>614.7635209976528</v>
       </c>
       <c r="P29" t="n">
         <v>486.6315098849295</v>
       </c>
       <c r="Q29" t="n">
-        <v>287.4382201196046</v>
+        <v>75.1232294596999</v>
       </c>
       <c r="R29" t="n">
         <v>23.14306484755528</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>12.39075141211265</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K30" t="n">
-        <v>100.1220351320622</v>
+        <v>364.5872721446408</v>
       </c>
       <c r="L30" t="n">
-        <v>181.416877672889</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M30" t="n">
-        <v>696.9623952061479</v>
+        <v>342.931577198894</v>
       </c>
       <c r="N30" t="n">
-        <v>731.2745860192629</v>
+        <v>251.9322116757093</v>
       </c>
       <c r="O30" t="n">
         <v>208.0245171562028</v>
@@ -36929,7 +36929,7 @@
         <v>465.8924336824982</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.2301090777815</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.96788811211101</v>
+        <v>73.96788811211115</v>
       </c>
       <c r="K31" t="n">
-        <v>201.248793156908</v>
+        <v>201.2487931569082</v>
       </c>
       <c r="L31" t="n">
-        <v>291.2497071407328</v>
+        <v>291.2497071407329</v>
       </c>
       <c r="M31" t="n">
-        <v>313.228366296647</v>
+        <v>313.2283662966471</v>
       </c>
       <c r="N31" t="n">
-        <v>313.1717448903008</v>
+        <v>313.1717448903009</v>
       </c>
       <c r="O31" t="n">
-        <v>279.1922172092615</v>
+        <v>279.1922172092617</v>
       </c>
       <c r="P31" t="n">
-        <v>226.6821525785058</v>
+        <v>226.6821525785059</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.27100235571147</v>
+        <v>97.27100235571162</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>221.8149475898541</v>
       </c>
       <c r="K32" t="n">
-        <v>454.4075555788175</v>
+        <v>130.2621430076528</v>
       </c>
       <c r="L32" t="n">
-        <v>524.0299789172439</v>
+        <v>616.5374284452643</v>
       </c>
       <c r="M32" t="n">
         <v>702.7909715464335</v>
@@ -37081,16 +37081,16 @@
         <v>699.3830687105732</v>
       </c>
       <c r="O32" t="n">
-        <v>233.9633397349075</v>
+        <v>614.7635209976528</v>
       </c>
       <c r="P32" t="n">
-        <v>486.6315098849295</v>
+        <v>360.6123565128834</v>
       </c>
       <c r="Q32" t="n">
         <v>287.4382201196046</v>
       </c>
       <c r="R32" t="n">
-        <v>23.14306484755528</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K33" t="n">
-        <v>197.6117678999659</v>
+        <v>364.5872721446408</v>
       </c>
       <c r="L33" t="n">
-        <v>181.416877672889</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M33" t="n">
-        <v>696.9623952061479</v>
+        <v>231.257331456148</v>
       </c>
       <c r="N33" t="n">
         <v>251.9322116757093</v>
       </c>
       <c r="O33" t="n">
-        <v>601.8868364329323</v>
+        <v>319.6987628989489</v>
       </c>
       <c r="P33" t="n">
         <v>465.8924336824982</v>
       </c>
       <c r="Q33" t="n">
-        <v>48.1293960362938</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.96788811211114</v>
+        <v>73.96788811211115</v>
       </c>
       <c r="K34" t="n">
         <v>201.2487931569082</v>
@@ -37233,19 +37233,19 @@
         <v>291.2497071407329</v>
       </c>
       <c r="M34" t="n">
-        <v>313.2283662966471</v>
+        <v>313.228366296647</v>
       </c>
       <c r="N34" t="n">
         <v>313.1717448903009</v>
       </c>
       <c r="O34" t="n">
-        <v>279.1922172092616</v>
+        <v>279.1922172092617</v>
       </c>
       <c r="P34" t="n">
         <v>226.6821525785059</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.2710023557116</v>
+        <v>97.27100235571162</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>52.71833241778029</v>
+        <v>198.0168073562249</v>
       </c>
       <c r="K35" t="n">
         <v>454.4075555788175</v>
       </c>
       <c r="L35" t="n">
-        <v>616.5374284452643</v>
+        <v>198.8762138948138</v>
       </c>
       <c r="M35" t="n">
         <v>702.7909715464335</v>
@@ -37318,10 +37318,10 @@
         <v>699.3830687105732</v>
       </c>
       <c r="O35" t="n">
-        <v>283.3993082943844</v>
+        <v>233.9633397349075</v>
       </c>
       <c r="P35" t="n">
-        <v>164.8328017134469</v>
+        <v>486.6315098849295</v>
       </c>
       <c r="Q35" t="n">
         <v>287.4382201196046</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>12.39075141211265</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K36" t="n">
         <v>364.5872721446408</v>
@@ -37394,13 +37394,13 @@
         <v>231.257331456148</v>
       </c>
       <c r="N36" t="n">
-        <v>731.2745860192629</v>
+        <v>251.9322116757093</v>
       </c>
       <c r="O36" t="n">
-        <v>208.0245171562028</v>
+        <v>319.6987628989491</v>
       </c>
       <c r="P36" t="n">
-        <v>224.3153404220996</v>
+        <v>465.8924336824982</v>
       </c>
       <c r="Q36" t="n">
         <v>258.2066837721429</v>
@@ -37464,25 +37464,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>225.5614785034783</v>
+        <v>121.269135021251</v>
       </c>
       <c r="L37" t="n">
-        <v>315.5623924873031</v>
+        <v>211.2700490050757</v>
       </c>
       <c r="M37" t="n">
-        <v>233.24870816099</v>
+        <v>337.5410516432173</v>
       </c>
       <c r="N37" t="n">
         <v>233.1920867546438</v>
       </c>
       <c r="O37" t="n">
-        <v>199.2125590736045</v>
+        <v>303.5049025558318</v>
       </c>
       <c r="P37" t="n">
-        <v>146.7024944428487</v>
+        <v>175.0420010962503</v>
       </c>
       <c r="Q37" t="n">
-        <v>45.630850873456</v>
+        <v>17.29134422005446</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>221.8149475898541</v>
       </c>
       <c r="K38" t="n">
-        <v>130.2621430076528</v>
+        <v>454.4075555788175</v>
       </c>
       <c r="L38" t="n">
-        <v>532.6271645340324</v>
+        <v>616.5374284452643</v>
       </c>
       <c r="M38" t="n">
-        <v>702.7909715464335</v>
+        <v>294.7352950640379</v>
       </c>
       <c r="N38" t="n">
         <v>262.036144298589</v>
@@ -37631,16 +37631,16 @@
         <v>231.257331456148</v>
       </c>
       <c r="N39" t="n">
-        <v>498.2841945175124</v>
+        <v>251.9322116757093</v>
       </c>
       <c r="O39" t="n">
-        <v>601.8868364329323</v>
+        <v>319.6987628989491</v>
       </c>
       <c r="P39" t="n">
-        <v>147.4296650425611</v>
+        <v>465.8924336824982</v>
       </c>
       <c r="Q39" t="n">
-        <v>48.1293960362938</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>28.3395066534015</v>
       </c>
       <c r="K40" t="n">
         <v>121.269135021251</v>
       </c>
       <c r="L40" t="n">
-        <v>211.2700490050757</v>
+        <v>315.5623924873031</v>
       </c>
       <c r="M40" t="n">
-        <v>261.5882148143916</v>
+        <v>337.5410516432173</v>
       </c>
       <c r="N40" t="n">
         <v>233.1920867546438</v>
       </c>
       <c r="O40" t="n">
-        <v>303.5049025558318</v>
+        <v>199.2125590736045</v>
       </c>
       <c r="P40" t="n">
-        <v>250.9948379250761</v>
+        <v>146.7024944428487</v>
       </c>
       <c r="Q40" t="n">
         <v>17.29134422005446</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>79.01123612970153</v>
+        <v>52.71833241778029</v>
       </c>
       <c r="K41" t="n">
         <v>454.4075555788175</v>
@@ -37786,22 +37786,22 @@
         <v>616.5374284452643</v>
       </c>
       <c r="M41" t="n">
-        <v>702.7909715464335</v>
+        <v>253.277438053601</v>
       </c>
       <c r="N41" t="n">
         <v>699.3830687105732</v>
       </c>
       <c r="O41" t="n">
-        <v>233.9633397349075</v>
+        <v>614.7635209976528</v>
       </c>
       <c r="P41" t="n">
-        <v>164.8328017134469</v>
+        <v>486.6315098849295</v>
       </c>
       <c r="Q41" t="n">
-        <v>287.4382201196046</v>
+        <v>83.78883273768508</v>
       </c>
       <c r="R41" t="n">
-        <v>23.14306484755528</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>552.2572229763482</v>
       </c>
       <c r="M42" t="n">
-        <v>231.257331456148</v>
+        <v>342.9315771988943</v>
       </c>
       <c r="N42" t="n">
         <v>251.9322116757093</v>
       </c>
       <c r="O42" t="n">
-        <v>529.7760506347983</v>
+        <v>208.0245171562028</v>
       </c>
       <c r="P42" t="n">
         <v>465.8924336824982</v>
       </c>
       <c r="Q42" t="n">
-        <v>48.1293960362938</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>28.3395066534006</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>225.5614785034784</v>
+        <v>121.269135021251</v>
       </c>
       <c r="L43" t="n">
-        <v>211.2700490050757</v>
+        <v>239.6095556584762</v>
       </c>
       <c r="M43" t="n">
         <v>233.24870816099</v>
       </c>
       <c r="N43" t="n">
-        <v>233.1920867546438</v>
+        <v>337.4844302368712</v>
       </c>
       <c r="O43" t="n">
-        <v>199.2125590736045</v>
+        <v>303.5049025558318</v>
       </c>
       <c r="P43" t="n">
         <v>146.7024944428487</v>
       </c>
       <c r="Q43" t="n">
-        <v>121.5836877022818</v>
+        <v>17.29134422005446</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,19 +38020,19 @@
         <v>454.4075555788175</v>
       </c>
       <c r="L44" t="n">
-        <v>473.7337169851116</v>
+        <v>616.5374284452643</v>
       </c>
       <c r="M44" t="n">
-        <v>702.7909715464335</v>
+        <v>294.735295064037</v>
       </c>
       <c r="N44" t="n">
-        <v>699.3830687105732</v>
+        <v>262.036144298589</v>
       </c>
       <c r="O44" t="n">
-        <v>233.9633397349075</v>
+        <v>614.7635209976528</v>
       </c>
       <c r="P44" t="n">
-        <v>164.8328017134469</v>
+        <v>486.6315098849295</v>
       </c>
       <c r="Q44" t="n">
         <v>287.4382201196046</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>12.39075141211265</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K45" t="n">
-        <v>100.1220351320622</v>
+        <v>364.5872721446408</v>
       </c>
       <c r="L45" t="n">
         <v>552.2572229763482</v>
       </c>
       <c r="M45" t="n">
-        <v>696.9623952061479</v>
+        <v>231.257331456148</v>
       </c>
       <c r="N45" t="n">
-        <v>731.2745860192629</v>
+        <v>251.9322116757093</v>
       </c>
       <c r="O45" t="n">
-        <v>293.7476535341697</v>
+        <v>319.6987628989491</v>
       </c>
       <c r="P45" t="n">
-        <v>147.4296650425611</v>
+        <v>465.8924336824982</v>
       </c>
       <c r="Q45" t="n">
-        <v>48.1293960362938</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>28.33950665340112</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>121.269135021251</v>
+        <v>225.5614785034783</v>
       </c>
       <c r="L46" t="n">
         <v>211.2700490050757</v>
       </c>
       <c r="M46" t="n">
-        <v>233.24870816099</v>
+        <v>337.5410516432173</v>
       </c>
       <c r="N46" t="n">
-        <v>337.4844302368711</v>
+        <v>233.1920867546438</v>
       </c>
       <c r="O46" t="n">
         <v>199.2125590736045</v>
       </c>
       <c r="P46" t="n">
-        <v>250.9948379250761</v>
+        <v>175.0420010962499</v>
       </c>
       <c r="Q46" t="n">
         <v>17.29134422005446</v>
